--- a/source/excel/nwsl-2016/nwsl-2016-was-hou-051416.xlsx
+++ b/source/excel/nwsl-2016/nwsl-2016-was-hou-051416.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Desktop/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="460" windowWidth="19440" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1900" windowWidth="19440" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="match" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15614" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15615" uniqueCount="253">
   <si>
     <t>event</t>
   </si>
@@ -1516,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A584" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N601" sqref="N601"/>
+    <sheetView tabSelected="1" topLeftCell="E1391" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="S1401" sqref="S1401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -62108,7 +62108,9 @@
       <c r="I1052" s="34"/>
       <c r="J1052" s="20"/>
       <c r="K1052" s="20"/>
-      <c r="L1052" s="20"/>
+      <c r="L1052" s="20" t="s">
+        <v>125</v>
+      </c>
       <c r="M1052" s="34"/>
       <c r="N1052" s="34"/>
       <c r="O1052" s="34"/>

--- a/source/excel/nwsl-2016/nwsl-2016-was-hou-051416.xlsx
+++ b/source/excel/nwsl-2016/nwsl-2016-was-hou-051416.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Desktop/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/wosostats/source/excel/nwsl-2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1900" windowWidth="19440" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="1900" windowWidth="19440" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="match" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15615" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15671" uniqueCount="253">
   <si>
     <t>event</t>
   </si>
@@ -1092,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1162,9 +1162,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1516,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1391" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="S1401" sqref="S1401"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1613,8 +1610,12 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C2" s="12" t="s">
         <v>116</v>
       </c>
@@ -1671,8 +1672,12 @@
       </c>
     </row>
     <row r="3" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" s="12" t="s">
         <v>124</v>
       </c>
@@ -1729,8 +1734,12 @@
       </c>
     </row>
     <row r="4" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C4" s="12" t="s">
         <v>124</v>
       </c>
@@ -1787,8 +1796,12 @@
       </c>
     </row>
     <row r="5" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="12" t="s">
         <v>124</v>
       </c>
@@ -1845,8 +1858,12 @@
       </c>
     </row>
     <row r="6" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" s="12" t="s">
         <v>124</v>
       </c>
@@ -1901,8 +1918,12 @@
       <c r="T6" s="18"/>
     </row>
     <row r="7" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C7" s="20" t="s">
         <v>158</v>
       </c>
@@ -1955,8 +1976,12 @@
       <c r="T7" s="18"/>
     </row>
     <row r="8" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="20" t="s">
         <v>158</v>
       </c>
@@ -2005,8 +2030,12 @@
       <c r="T8" s="18"/>
     </row>
     <row r="9" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="20" t="s">
         <v>158</v>
       </c>
@@ -2055,8 +2084,12 @@
       <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="20" t="s">
         <v>158</v>
       </c>
@@ -2105,8 +2138,12 @@
       <c r="T10" s="18"/>
     </row>
     <row r="11" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C11" s="12" t="s">
         <v>179</v>
       </c>
@@ -2155,8 +2192,12 @@
       <c r="T11" s="18"/>
     </row>
     <row r="12" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C12" s="12" t="s">
         <v>179</v>
       </c>
@@ -2203,8 +2244,12 @@
       <c r="T12" s="18"/>
     </row>
     <row r="13" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C13" s="12" t="s">
         <v>179</v>
       </c>
@@ -2251,8 +2296,12 @@
       <c r="T13" s="18"/>
     </row>
     <row r="14" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C14" s="12" t="s">
         <v>179</v>
       </c>
@@ -2299,8 +2348,12 @@
       <c r="T14" s="18"/>
     </row>
     <row r="15" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C15" s="12" t="s">
         <v>124</v>
       </c>
@@ -2345,8 +2398,12 @@
       <c r="T15" s="18"/>
     </row>
     <row r="16" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" s="12" t="s">
         <v>116</v>
       </c>
@@ -2391,8 +2448,12 @@
       <c r="T16" s="18"/>
     </row>
     <row r="17" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C17" s="12" t="s">
         <v>124</v>
       </c>
@@ -2435,8 +2496,12 @@
       <c r="T17" s="18"/>
     </row>
     <row r="18" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C18" s="12" t="s">
         <v>124</v>
       </c>
@@ -2473,8 +2538,12 @@
       <c r="T18" s="18"/>
     </row>
     <row r="19" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C19" s="12" t="s">
         <v>124</v>
       </c>
@@ -2511,8 +2580,12 @@
       <c r="T19" s="18"/>
     </row>
     <row r="20" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C20" s="20" t="s">
         <v>124</v>
       </c>
@@ -2549,8 +2622,12 @@
       <c r="T20" s="18"/>
     </row>
     <row r="21" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C21" s="20" t="s">
         <v>158</v>
       </c>
@@ -2587,8 +2664,12 @@
       <c r="T21" s="18"/>
     </row>
     <row r="22" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C22" s="20" t="s">
         <v>158</v>
       </c>
@@ -2625,8 +2706,12 @@
       <c r="T22" s="18"/>
     </row>
     <row r="23" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C23" s="20" t="s">
         <v>158</v>
       </c>
@@ -2663,8 +2748,12 @@
       <c r="T23" s="18"/>
     </row>
     <row r="24" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C24" s="12" t="s">
         <v>158</v>
       </c>
@@ -2701,8 +2790,12 @@
       <c r="T24" s="18"/>
     </row>
     <row r="25" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C25" s="12" t="s">
         <v>179</v>
       </c>
@@ -2737,15 +2830,19 @@
       <c r="T25" s="18"/>
     </row>
     <row r="26" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="36" t="s">
+      <c r="A26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="35" t="s">
         <v>179</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="36" t="s">
         <v>226</v>
       </c>
       <c r="F26" s="33" t="s">
@@ -2754,13 +2851,13 @@
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="36" t="s">
+      <c r="J26" s="35" t="s">
         <v>179</v>
       </c>
       <c r="K26" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="L26" s="37" t="s">
+      <c r="L26" s="36" t="s">
         <v>226</v>
       </c>
       <c r="M26" s="34"/>
@@ -2773,9 +2870,13 @@
       <c r="T26" s="18"/>
     </row>
     <row r="27" spans="1:26" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="41" t="s">
+      <c r="A27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="40" t="s">
         <v>179</v>
       </c>
       <c r="D27" s="27" t="s">
@@ -2790,7 +2891,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="41" t="s">
+      <c r="J27" s="40" t="s">
         <v>179</v>
       </c>
       <c r="K27" s="27" t="s">
@@ -2808,77 +2909,85 @@
       <c r="S27" s="16"/>
       <c r="T27" s="18"/>
     </row>
-    <row r="28" spans="1:26" s="40" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
+    <row r="28" spans="1:26" s="39" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C28" s="20" t="s">
         <v>179</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="42" t="s">
         <v>230</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="20" t="s">
         <v>179</v>
       </c>
       <c r="K28" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="L28" s="43" t="s">
+      <c r="L28" s="42" t="s">
         <v>230</v>
       </c>
       <c r="M28" s="34"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="39"/>
-    </row>
-    <row r="29" spans="1:26" s="40" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="38"/>
+    </row>
+    <row r="29" spans="1:26" s="39" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C29" s="20" t="s">
         <v>179</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
       <c r="J29" s="20" t="s">
         <v>179</v>
       </c>
       <c r="K29" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="L29" s="45" t="s">
+      <c r="L29" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
     </row>
     <row r="30" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
@@ -2967,7 +3076,7 @@
       <c r="F31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="51" t="s">
         <v>241</v>
       </c>
       <c r="H31" s="8" t="s">
@@ -3035,7 +3144,7 @@
       <c r="F32" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="51" t="s">
         <v>242</v>
       </c>
       <c r="H32" s="8" t="s">
@@ -3103,7 +3212,7 @@
       <c r="F33" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G33" s="51" t="s">
         <v>241</v>
       </c>
       <c r="H33" s="8" t="s">
@@ -3171,7 +3280,7 @@
       <c r="F34" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="51" t="s">
         <v>243</v>
       </c>
       <c r="H34" s="8" t="s">
@@ -3239,7 +3348,7 @@
       <c r="F35" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="51" t="s">
         <v>238</v>
       </c>
       <c r="H35" s="8" t="s">
@@ -3293,13 +3402,13 @@
       <c r="B36" s="5"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="G36" s="54" t="s">
+      <c r="G36" s="53" t="s">
         <v>240</v>
       </c>
       <c r="H36" s="8"/>
@@ -3341,7 +3450,7 @@
       <c r="F37" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="51" t="s">
         <v>73</v>
       </c>
       <c r="H37" s="8" t="s">
@@ -3409,13 +3518,13 @@
       <c r="F38" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="51" t="s">
         <v>240</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="54" t="s">
+      <c r="I38" s="53" t="s">
         <v>110</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -3477,7 +3586,7 @@
       <c r="F39" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="51" t="s">
         <v>240</v>
       </c>
       <c r="H39" s="8" t="s">
@@ -3545,7 +3654,7 @@
       <c r="F40" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="55" t="s">
+      <c r="G40" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H40" s="8" t="s">
@@ -3613,7 +3722,7 @@
       <c r="F41" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="55" t="s">
+      <c r="G41" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H41" s="8" t="s">
@@ -3702,7 +3811,7 @@
       <c r="M42" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N42" s="55" t="s">
+      <c r="N42" s="54" t="s">
         <v>245</v>
       </c>
       <c r="O42" s="8" t="s">
@@ -3749,7 +3858,7 @@
       <c r="F43" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H43" s="8" t="s">
@@ -3817,7 +3926,7 @@
       <c r="F44" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="55" t="s">
+      <c r="G44" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H44" s="8" t="s">
@@ -3906,7 +4015,7 @@
       <c r="M45" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N45" s="55" t="s">
+      <c r="N45" s="54" t="s">
         <v>245</v>
       </c>
       <c r="O45" s="8" t="s">
@@ -3974,7 +4083,7 @@
       <c r="M46" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N46" s="55" t="s">
+      <c r="N46" s="54" t="s">
         <v>245</v>
       </c>
       <c r="O46" s="8" t="s">
@@ -4021,7 +4130,7 @@
       <c r="F47" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="55" t="s">
+      <c r="G47" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H47" s="8" t="s">
@@ -4089,7 +4198,7 @@
       <c r="F48" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G48" s="55" t="s">
+      <c r="G48" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H48" s="8" t="s">
@@ -4157,7 +4266,7 @@
       <c r="F49" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="55" t="s">
+      <c r="G49" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H49" s="8" t="s">
@@ -4225,7 +4334,7 @@
       <c r="F50" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="55" t="s">
+      <c r="G50" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H50" s="8" t="s">
@@ -4279,13 +4388,13 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="53" t="s">
+      <c r="E51" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="54" t="s">
+      <c r="F51" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="G51" s="54" t="s">
+      <c r="G51" s="53" t="s">
         <v>243</v>
       </c>
       <c r="H51" s="8"/>
@@ -4327,7 +4436,7 @@
       <c r="F52" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G52" s="55" t="s">
+      <c r="G52" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H52" s="8" t="s">
@@ -4395,7 +4504,7 @@
       <c r="F53" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G53" s="55" t="s">
+      <c r="G53" s="54" t="s">
         <v>238</v>
       </c>
       <c r="H53" s="8" t="s">
@@ -4416,7 +4525,7 @@
       <c r="M53" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N53" s="55" t="s">
+      <c r="N53" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O53" s="8" t="s">
@@ -4463,7 +4572,7 @@
       <c r="F54" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G54" s="55" t="s">
+      <c r="G54" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H54" s="8" t="s">
@@ -4531,7 +4640,7 @@
       <c r="F55" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G55" s="55" t="s">
+      <c r="G55" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H55" s="8" t="s">
@@ -4599,7 +4708,7 @@
       <c r="F56" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G56" s="55" t="s">
+      <c r="G56" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H56" s="8" t="s">
@@ -4667,7 +4776,7 @@
       <c r="F57" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G57" s="55" t="s">
+      <c r="G57" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H57" s="8" t="s">
@@ -4735,7 +4844,7 @@
       <c r="F58" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G58" s="55" t="s">
+      <c r="G58" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H58" s="8" t="s">
@@ -4803,7 +4912,7 @@
       <c r="F59" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="55" t="s">
+      <c r="G59" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H59" s="8" t="s">
@@ -4871,7 +4980,7 @@
       <c r="F60" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G60" s="55" t="s">
+      <c r="G60" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H60" s="8" t="s">
@@ -4939,7 +5048,7 @@
       <c r="F61" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G61" s="55" t="s">
+      <c r="G61" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H61" s="8" t="s">
@@ -5007,7 +5116,7 @@
       <c r="F62" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G62" s="55" t="s">
+      <c r="G62" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H62" s="8" t="s">
@@ -5075,7 +5184,7 @@
       <c r="F63" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G63" s="55" t="s">
+      <c r="G63" s="54" t="s">
         <v>248</v>
       </c>
       <c r="H63" s="8" t="s">
@@ -5143,10 +5252,10 @@
       <c r="F64" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="55" t="s">
+      <c r="G64" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="H64" s="54" t="s">
+      <c r="H64" s="53" t="s">
         <v>249</v>
       </c>
       <c r="I64" s="8" t="s">
@@ -5197,16 +5306,16 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="53" t="s">
+      <c r="E65" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="54" t="s">
+      <c r="F65" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="54" t="s">
+      <c r="G65" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="H65" s="52" t="s">
+      <c r="H65" s="51" t="s">
         <v>250</v>
       </c>
       <c r="I65" s="8"/>
@@ -5247,7 +5356,7 @@
       <c r="F66" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G66" s="55" t="s">
+      <c r="G66" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H66" s="8" t="s">
@@ -5336,7 +5445,7 @@
       <c r="M67" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N67" s="55" t="s">
+      <c r="N67" s="54" t="s">
         <v>247</v>
       </c>
       <c r="O67" s="8" t="s">
@@ -5383,7 +5492,7 @@
       <c r="F68" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G68" s="55" t="s">
+      <c r="G68" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H68" s="8" t="s">
@@ -5451,7 +5560,7 @@
       <c r="F69" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G69" s="55" t="s">
+      <c r="G69" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H69" s="8" t="s">
@@ -5519,7 +5628,7 @@
       <c r="F70" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G70" s="55" t="s">
+      <c r="G70" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H70" s="8" t="s">
@@ -5587,7 +5696,7 @@
       <c r="F71" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G71" s="55" t="s">
+      <c r="G71" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H71" s="8" t="s">
@@ -5655,7 +5764,7 @@
       <c r="F72" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G72" s="55" t="s">
+      <c r="G72" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H72" s="8" t="s">
@@ -5723,7 +5832,7 @@
       <c r="F73" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G73" s="55" t="s">
+      <c r="G73" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H73" s="8" t="s">
@@ -5812,7 +5921,7 @@
       <c r="M74" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N74" s="55" t="s">
+      <c r="N74" s="54" t="s">
         <v>240</v>
       </c>
       <c r="O74" s="8" t="s">
@@ -5859,7 +5968,7 @@
       <c r="F75" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G75" s="55" t="s">
+      <c r="G75" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H75" s="8" t="s">
@@ -5927,7 +6036,7 @@
       <c r="F76" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G76" s="55" t="s">
+      <c r="G76" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H76" s="8" t="s">
@@ -5995,7 +6104,7 @@
       <c r="F77" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G77" s="55" t="s">
+      <c r="G77" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H77" s="8" t="s">
@@ -6063,7 +6172,7 @@
       <c r="F78" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G78" s="55" t="s">
+      <c r="G78" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H78" s="8" t="s">
@@ -6131,7 +6240,7 @@
       <c r="F79" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G79" s="55" t="s">
+      <c r="G79" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H79" s="8" t="s">
@@ -6188,10 +6297,10 @@
       <c r="E80" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F80" s="55" t="s">
+      <c r="F80" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="G80" s="55" t="s">
+      <c r="G80" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H80" s="8"/>
@@ -6233,7 +6342,7 @@
       <c r="F81" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G81" s="55" t="s">
+      <c r="G81" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H81" s="8" t="s">
@@ -6301,7 +6410,7 @@
       <c r="F82" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G82" s="55" t="s">
+      <c r="G82" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H82" s="8" t="s">
@@ -6369,7 +6478,7 @@
       <c r="F83" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G83" s="55" t="s">
+      <c r="G83" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H83" s="8" t="s">
@@ -6437,7 +6546,7 @@
       <c r="F84" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G84" s="55" t="s">
+      <c r="G84" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H84" s="8" t="s">
@@ -6505,7 +6614,7 @@
       <c r="F85" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G85" s="55" t="s">
+      <c r="G85" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H85" s="8" t="s">
@@ -6573,7 +6682,7 @@
       <c r="F86" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G86" s="55" t="s">
+      <c r="G86" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H86" s="8" t="s">
@@ -6641,7 +6750,7 @@
       <c r="F87" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G87" s="55" t="s">
+      <c r="G87" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H87" s="8" t="s">
@@ -6709,7 +6818,7 @@
       <c r="F88" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G88" s="55" t="s">
+      <c r="G88" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H88" s="8" t="s">
@@ -6777,7 +6886,7 @@
       <c r="F89" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G89" s="55" t="s">
+      <c r="G89" s="54" t="s">
         <v>73</v>
       </c>
       <c r="H89" s="8" t="s">
@@ -6866,7 +6975,7 @@
       <c r="M90" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N90" s="55" t="s">
+      <c r="N90" s="54" t="s">
         <v>247</v>
       </c>
       <c r="O90" s="8" t="s">
@@ -6913,7 +7022,7 @@
       <c r="F91" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G91" s="55" t="s">
+      <c r="G91" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H91" s="8" t="s">
@@ -6981,7 +7090,7 @@
       <c r="F92" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G92" s="55" t="s">
+      <c r="G92" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H92" s="8" t="s">
@@ -7070,7 +7179,7 @@
       <c r="M93" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N93" s="55" t="s">
+      <c r="N93" s="54" t="s">
         <v>241</v>
       </c>
       <c r="O93" s="8" t="s">
@@ -7117,7 +7226,7 @@
       <c r="F94" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G94" s="55" t="s">
+      <c r="G94" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H94" s="8" t="s">
@@ -7185,7 +7294,7 @@
       <c r="F95" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G95" s="55" t="s">
+      <c r="G95" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H95" s="8" t="s">
@@ -7253,7 +7362,7 @@
       <c r="F96" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G96" s="55" t="s">
+      <c r="G96" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H96" s="8" t="s">
@@ -7310,10 +7419,10 @@
       <c r="E97" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F97" s="55" t="s">
+      <c r="F97" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="G97" s="55" t="s">
+      <c r="G97" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H97" s="8"/>
@@ -7355,7 +7464,7 @@
       <c r="F98" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G98" s="55" t="s">
+      <c r="G98" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H98" s="8" t="s">
@@ -7412,10 +7521,10 @@
       <c r="E99" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F99" s="55" t="s">
+      <c r="F99" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="G99" s="55" t="s">
+      <c r="G99" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H99" s="8"/>
@@ -7457,7 +7566,7 @@
       <c r="F100" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G100" s="55" t="s">
+      <c r="G100" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H100" s="8" t="s">
@@ -7525,7 +7634,7 @@
       <c r="F101" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G101" s="55" t="s">
+      <c r="G101" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H101" s="8" t="s">
@@ -7593,7 +7702,7 @@
       <c r="F102" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G102" s="55" t="s">
+      <c r="G102" s="54" t="s">
         <v>73</v>
       </c>
       <c r="H102" s="8" t="s">
@@ -7661,7 +7770,7 @@
       <c r="F103" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G103" s="55" t="s">
+      <c r="G103" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H103" s="8" t="s">
@@ -7682,7 +7791,7 @@
       <c r="M103" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N103" s="55" t="s">
+      <c r="N103" s="54" t="s">
         <v>247</v>
       </c>
       <c r="O103" s="8" t="s">
@@ -7729,7 +7838,7 @@
       <c r="F104" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G104" s="55" t="s">
+      <c r="G104" s="54" t="s">
         <v>206</v>
       </c>
       <c r="H104" s="8" t="s">
@@ -7750,7 +7859,7 @@
       <c r="M104" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N104" s="55" t="s">
+      <c r="N104" s="54" t="s">
         <v>249</v>
       </c>
       <c r="O104" s="8" t="s">
@@ -7865,7 +7974,7 @@
       <c r="F106" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G106" s="55" t="s">
+      <c r="G106" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H106" s="8" t="s">
@@ -7933,7 +8042,7 @@
       <c r="F107" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G107" s="55" t="s">
+      <c r="G107" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H107" s="8" t="s">
@@ -7954,7 +8063,7 @@
       <c r="M107" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N107" s="55" t="s">
+      <c r="N107" s="54" t="s">
         <v>251</v>
       </c>
       <c r="O107" s="8" t="s">
@@ -8001,7 +8110,7 @@
       <c r="F108" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G108" s="55" t="s">
+      <c r="G108" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H108" s="8" t="s">
@@ -8069,7 +8178,7 @@
       <c r="F109" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G109" s="55" t="s">
+      <c r="G109" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H109" s="8" t="s">
@@ -8137,10 +8246,10 @@
       <c r="F110" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G110" s="55" t="s">
+      <c r="G110" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="H110" s="56"/>
+      <c r="H110" s="55"/>
       <c r="I110" s="8" t="s">
         <v>20</v>
       </c>
@@ -8189,13 +8298,13 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="53" t="s">
+      <c r="E111" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F111" s="54" t="s">
+      <c r="F111" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="G111" s="54" t="s">
+      <c r="G111" s="53" t="s">
         <v>245</v>
       </c>
       <c r="H111" s="8"/>
@@ -8237,7 +8346,7 @@
       <c r="F112" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G112" s="55" t="s">
+      <c r="G112" s="54" t="s">
         <v>73</v>
       </c>
       <c r="H112" s="8" t="s">
@@ -8258,7 +8367,7 @@
       <c r="M112" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N112" s="55" t="s">
+      <c r="N112" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O112" s="8" t="s">
@@ -8305,7 +8414,7 @@
       <c r="F113" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G113" s="55" t="s">
+      <c r="G113" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H113" s="8" t="s">
@@ -8373,7 +8482,7 @@
       <c r="F114" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G114" s="55" t="s">
+      <c r="G114" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H114" s="8" t="s">
@@ -8427,13 +8536,13 @@
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="53" t="s">
+      <c r="E115" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F115" s="54" t="s">
+      <c r="F115" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="G115" s="54" t="s">
+      <c r="G115" s="53" t="s">
         <v>251</v>
       </c>
       <c r="H115" s="8"/>
@@ -8475,7 +8584,7 @@
       <c r="F116" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G116" s="55" t="s">
+      <c r="G116" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H116" s="8" t="s">
@@ -8543,7 +8652,7 @@
       <c r="F117" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G117" s="55" t="s">
+      <c r="G117" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H117" s="8" t="s">
@@ -8611,7 +8720,7 @@
       <c r="F118" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G118" s="55" t="s">
+      <c r="G118" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H118" s="8" t="s">
@@ -8679,7 +8788,7 @@
       <c r="F119" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G119" s="55" t="s">
+      <c r="G119" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H119" s="8" t="s">
@@ -8747,7 +8856,7 @@
       <c r="F120" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G120" s="55" t="s">
+      <c r="G120" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H120" s="8" t="s">
@@ -8815,7 +8924,7 @@
       <c r="F121" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G121" s="55" t="s">
+      <c r="G121" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H121" s="8" t="s">
@@ -8883,7 +8992,7 @@
       <c r="F122" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G122" s="55" t="s">
+      <c r="G122" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H122" s="8" t="s">
@@ -8951,7 +9060,7 @@
       <c r="F123" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G123" s="55" t="s">
+      <c r="G123" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H123" s="8" t="s">
@@ -8972,7 +9081,7 @@
       <c r="M123" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N123" s="55" t="s">
+      <c r="N123" s="54" t="s">
         <v>250</v>
       </c>
       <c r="O123" s="8" t="s">
@@ -9019,7 +9128,7 @@
       <c r="F124" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G124" s="55" t="s">
+      <c r="G124" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H124" s="8" t="s">
@@ -9087,7 +9196,7 @@
       <c r="F125" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G125" s="55" t="s">
+      <c r="G125" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H125" s="8" t="s">
@@ -9155,7 +9264,7 @@
       <c r="F126" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G126" s="55" t="s">
+      <c r="G126" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H126" s="8" t="s">
@@ -9223,7 +9332,7 @@
       <c r="F127" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G127" s="55" t="s">
+      <c r="G127" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H127" s="8" t="s">
@@ -9291,7 +9400,7 @@
       <c r="F128" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G128" s="55" t="s">
+      <c r="G128" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H128" s="8" t="s">
@@ -9359,7 +9468,7 @@
       <c r="F129" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G129" s="55" t="s">
+      <c r="G129" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H129" s="8" t="s">
@@ -9427,7 +9536,7 @@
       <c r="F130" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G130" s="52" t="s">
+      <c r="G130" s="51" t="s">
         <v>251</v>
       </c>
       <c r="H130" s="8" t="s">
@@ -9481,13 +9590,13 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="53" t="s">
+      <c r="E131" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="F131" s="54" t="s">
+      <c r="F131" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="G131" s="54" t="s">
+      <c r="G131" s="53" t="s">
         <v>241</v>
       </c>
       <c r="H131" s="8"/>
@@ -9529,7 +9638,7 @@
       <c r="F132" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G132" s="52" t="s">
+      <c r="G132" s="51" t="s">
         <v>238</v>
       </c>
       <c r="H132" s="8" t="s">
@@ -9597,7 +9706,7 @@
       <c r="F133" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G133" s="55" t="s">
+      <c r="G133" s="54" t="s">
         <v>206</v>
       </c>
       <c r="H133" s="8" t="s">
@@ -9618,7 +9727,7 @@
       <c r="M133" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N133" s="52" t="s">
+      <c r="N133" s="51" t="s">
         <v>206</v>
       </c>
       <c r="O133" s="8" t="s">
@@ -9733,7 +9842,7 @@
       <c r="F135" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G135" s="55" t="s">
+      <c r="G135" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H135" s="8" t="s">
@@ -9801,7 +9910,7 @@
       <c r="F136" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G136" s="55" t="s">
+      <c r="G136" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H136" s="8" t="s">
@@ -9869,7 +9978,7 @@
       <c r="F137" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G137" s="55" t="s">
+      <c r="G137" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H137" s="8" t="s">
@@ -9937,7 +10046,7 @@
       <c r="F138" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G138" s="55" t="s">
+      <c r="G138" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H138" s="8" t="s">
@@ -10026,7 +10135,7 @@
       <c r="M139" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N139" s="55" t="s">
+      <c r="N139" s="54" t="s">
         <v>240</v>
       </c>
       <c r="O139" s="8" t="s">
@@ -10073,7 +10182,7 @@
       <c r="F140" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G140" s="55" t="s">
+      <c r="G140" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H140" s="8" t="s">
@@ -10141,7 +10250,7 @@
       <c r="F141" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G141" s="55" t="s">
+      <c r="G141" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H141" s="8" t="s">
@@ -10209,7 +10318,7 @@
       <c r="F142" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G142" s="55" t="s">
+      <c r="G142" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H142" s="8" t="s">
@@ -10277,7 +10386,7 @@
       <c r="F143" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G143" s="55" t="s">
+      <c r="G143" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H143" s="8" t="s">
@@ -10345,7 +10454,7 @@
       <c r="F144" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G144" s="55" t="s">
+      <c r="G144" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H144" s="8" t="s">
@@ -10413,7 +10522,7 @@
       <c r="F145" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G145" s="55" t="s">
+      <c r="G145" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H145" s="8" t="s">
@@ -10481,7 +10590,7 @@
       <c r="F146" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G146" s="55" t="s">
+      <c r="G146" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H146" s="8" t="s">
@@ -10549,7 +10658,7 @@
       <c r="F147" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G147" s="55" t="s">
+      <c r="G147" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H147" s="8" t="s">
@@ -10617,7 +10726,7 @@
       <c r="F148" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G148" s="55" t="s">
+      <c r="G148" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H148" s="8" t="s">
@@ -10685,7 +10794,7 @@
       <c r="F149" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G149" s="55" t="s">
+      <c r="G149" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H149" s="8" t="s">
@@ -10706,7 +10815,7 @@
       <c r="M149" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N149" s="55" t="s">
+      <c r="N149" s="54" t="s">
         <v>247</v>
       </c>
       <c r="O149" s="8" t="s">
@@ -10753,7 +10862,7 @@
       <c r="F150" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G150" s="55" t="s">
+      <c r="G150" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H150" s="8" t="s">
@@ -10821,7 +10930,7 @@
       <c r="F151" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G151" s="55" t="s">
+      <c r="G151" s="54" t="s">
         <v>206</v>
       </c>
       <c r="H151" s="8" t="s">
@@ -10889,7 +10998,7 @@
       <c r="F152" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G152" s="55" t="s">
+      <c r="G152" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H152" s="8" t="s">
@@ -10957,7 +11066,7 @@
       <c r="F153" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G153" s="55" t="s">
+      <c r="G153" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H153" s="8" t="s">
@@ -11025,7 +11134,7 @@
       <c r="F154" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G154" s="55" t="s">
+      <c r="G154" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H154" s="8" t="s">
@@ -11093,7 +11202,7 @@
       <c r="F155" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G155" s="55" t="s">
+      <c r="G155" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H155" s="8" t="s">
@@ -11161,7 +11270,7 @@
       <c r="F156" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G156" s="55" t="s">
+      <c r="G156" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H156" s="8" t="s">
@@ -11229,7 +11338,7 @@
       <c r="F157" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G157" s="55" t="s">
+      <c r="G157" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H157" s="8" t="s">
@@ -11297,7 +11406,7 @@
       <c r="F158" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G158" s="55" t="s">
+      <c r="G158" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H158" s="8" t="s">
@@ -11365,7 +11474,7 @@
       <c r="F159" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G159" s="55" t="s">
+      <c r="G159" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H159" s="8" t="s">
@@ -11433,7 +11542,7 @@
       <c r="F160" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G160" s="55" t="s">
+      <c r="G160" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H160" s="8" t="s">
@@ -11501,7 +11610,7 @@
       <c r="F161" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G161" s="55" t="s">
+      <c r="G161" s="54" t="s">
         <v>238</v>
       </c>
       <c r="H161" s="8" t="s">
@@ -11569,7 +11678,7 @@
       <c r="F162" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G162" s="55" t="s">
+      <c r="G162" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H162" s="8" t="s">
@@ -11637,7 +11746,7 @@
       <c r="F163" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G163" s="55" t="s">
+      <c r="G163" s="54" t="s">
         <v>206</v>
       </c>
       <c r="H163" s="8" t="s">
@@ -11773,7 +11882,7 @@
       <c r="F165" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G165" s="55" t="s">
+      <c r="G165" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H165" s="8" t="s">
@@ -11841,7 +11950,7 @@
       <c r="F166" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G166" s="55" t="s">
+      <c r="G166" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H166" s="8" t="s">
@@ -11909,7 +12018,7 @@
       <c r="F167" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G167" s="55" t="s">
+      <c r="G167" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H167" s="8" t="s">
@@ -11977,7 +12086,7 @@
       <c r="F168" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G168" s="55" t="s">
+      <c r="G168" s="54" t="s">
         <v>238</v>
       </c>
       <c r="H168" s="8" t="s">
@@ -12045,7 +12154,7 @@
       <c r="F169" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G169" s="55" t="s">
+      <c r="G169" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H169" s="8" t="s">
@@ -12113,7 +12222,7 @@
       <c r="F170" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G170" s="55" t="s">
+      <c r="G170" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H170" s="8" t="s">
@@ -12181,7 +12290,7 @@
       <c r="F171" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G171" s="55" t="s">
+      <c r="G171" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H171" s="8" t="s">
@@ -12249,7 +12358,7 @@
       <c r="F172" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G172" s="55" t="s">
+      <c r="G172" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H172" s="8" t="s">
@@ -12317,7 +12426,7 @@
       <c r="F173" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G173" s="55" t="s">
+      <c r="G173" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H173" s="8" t="s">
@@ -12371,13 +12480,13 @@
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
-      <c r="E174" s="53" t="s">
+      <c r="E174" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="F174" s="54" t="s">
+      <c r="F174" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="G174" s="54" t="s">
+      <c r="G174" s="53" t="s">
         <v>250</v>
       </c>
       <c r="H174" s="8"/>
@@ -12405,13 +12514,13 @@
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
-      <c r="E175" s="53" t="s">
+      <c r="E175" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="F175" s="54" t="s">
+      <c r="F175" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="G175" s="54" t="s">
+      <c r="G175" s="53" t="s">
         <v>241</v>
       </c>
       <c r="H175" s="8"/>
@@ -12453,7 +12562,7 @@
       <c r="F176" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G176" s="55" t="s">
+      <c r="G176" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H176" s="8" t="s">
@@ -12521,7 +12630,7 @@
       <c r="F177" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G177" s="55" t="s">
+      <c r="G177" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H177" s="8" t="s">
@@ -12589,7 +12698,7 @@
       <c r="F178" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G178" s="55" t="s">
+      <c r="G178" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H178" s="8" t="s">
@@ -12657,7 +12766,7 @@
       <c r="F179" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G179" s="55" t="s">
+      <c r="G179" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H179" s="8" t="s">
@@ -12678,7 +12787,7 @@
       <c r="M179" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N179" s="55" t="s">
+      <c r="N179" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O179" s="8" t="s">
@@ -12725,7 +12834,7 @@
       <c r="F180" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G180" s="55" t="s">
+      <c r="G180" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H180" s="8" t="s">
@@ -12793,7 +12902,7 @@
       <c r="F181" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G181" s="55" t="s">
+      <c r="G181" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H181" s="8" t="s">
@@ -12861,7 +12970,7 @@
       <c r="F182" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G182" s="55" t="s">
+      <c r="G182" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H182" s="8" t="s">
@@ -12929,7 +13038,7 @@
       <c r="F183" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G183" s="55" t="s">
+      <c r="G183" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H183" s="8" t="s">
@@ -12997,7 +13106,7 @@
       <c r="F184" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G184" s="55" t="s">
+      <c r="G184" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H184" s="8" t="s">
@@ -13065,7 +13174,7 @@
       <c r="F185" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G185" s="55" t="s">
+      <c r="G185" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H185" s="8" t="s">
@@ -13133,7 +13242,7 @@
       <c r="F186" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G186" s="55" t="s">
+      <c r="G186" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H186" s="8" t="s">
@@ -13201,7 +13310,7 @@
       <c r="F187" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G187" s="55" t="s">
+      <c r="G187" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H187" s="8" t="s">
@@ -13269,7 +13378,7 @@
       <c r="F188" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G188" s="55" t="s">
+      <c r="G188" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H188" s="8" t="s">
@@ -13337,7 +13446,7 @@
       <c r="F189" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G189" s="55" t="s">
+      <c r="G189" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H189" s="8" t="s">
@@ -13405,7 +13514,7 @@
       <c r="F190" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G190" s="55" t="s">
+      <c r="G190" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H190" s="8" t="s">
@@ -13473,7 +13582,7 @@
       <c r="F191" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G191" s="55" t="s">
+      <c r="G191" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H191" s="8" t="s">
@@ -13609,7 +13718,7 @@
       <c r="F193" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G193" s="55" t="s">
+      <c r="G193" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H193" s="8" t="s">
@@ -13677,7 +13786,7 @@
       <c r="F194" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G194" s="55" t="s">
+      <c r="G194" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H194" s="8" t="s">
@@ -13745,7 +13854,7 @@
       <c r="F195" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G195" s="55" t="s">
+      <c r="G195" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H195" s="8" t="s">
@@ -13813,7 +13922,7 @@
       <c r="F196" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G196" s="55" t="s">
+      <c r="G196" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H196" s="8" t="s">
@@ -13881,7 +13990,7 @@
       <c r="F197" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G197" s="55" t="s">
+      <c r="G197" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H197" s="8" t="s">
@@ -13949,7 +14058,7 @@
       <c r="F198" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G198" s="55" t="s">
+      <c r="G198" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H198" s="8" t="s">
@@ -14017,7 +14126,7 @@
       <c r="F199" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G199" s="55" t="s">
+      <c r="G199" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H199" s="8" t="s">
@@ -14074,10 +14183,10 @@
       <c r="E200" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F200" s="55" t="s">
+      <c r="F200" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="G200" s="55" t="s">
+      <c r="G200" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H200" s="8"/>
@@ -14119,7 +14228,7 @@
       <c r="F201" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G201" s="55" t="s">
+      <c r="G201" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H201" s="8" t="s">
@@ -14140,7 +14249,7 @@
       <c r="M201" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N201" s="55" t="s">
+      <c r="N201" s="54" t="s">
         <v>251</v>
       </c>
       <c r="O201" s="8" t="s">
@@ -14173,23 +14282,23 @@
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
-      <c r="E202" s="57" t="s">
+      <c r="E202" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="F202" s="55" t="s">
+      <c r="F202" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="G202" s="55" t="s">
+      <c r="G202" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H202" s="8"/>
       <c r="I202" s="8"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
-      <c r="L202" s="57" t="s">
+      <c r="L202" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="M202" s="55" t="s">
+      <c r="M202" s="54" t="s">
         <v>80</v>
       </c>
       <c r="N202" s="8"/>
@@ -14211,13 +14320,13 @@
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
-      <c r="E203" s="53" t="s">
+      <c r="E203" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F203" s="54" t="s">
+      <c r="F203" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G203" s="54" t="s">
+      <c r="G203" s="53" t="s">
         <v>251</v>
       </c>
       <c r="H203" s="8"/>
@@ -14263,7 +14372,7 @@
       <c r="F204" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G204" s="55" t="s">
+      <c r="G204" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H204" s="8" t="s">
@@ -14331,7 +14440,7 @@
       <c r="F205" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G205" s="55" t="s">
+      <c r="G205" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H205" s="8" t="s">
@@ -14399,7 +14508,7 @@
       <c r="F206" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G206" s="55" t="s">
+      <c r="G206" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H206" s="8" t="s">
@@ -14467,7 +14576,7 @@
       <c r="F207" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G207" s="55" t="s">
+      <c r="G207" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H207" s="8" t="s">
@@ -14524,10 +14633,10 @@
       <c r="E208" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F208" s="55" t="s">
+      <c r="F208" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="G208" s="55" t="s">
+      <c r="G208" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H208" s="8"/>
@@ -14558,10 +14667,10 @@
       <c r="E209" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F209" s="55" t="s">
+      <c r="F209" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="G209" s="55" t="s">
+      <c r="G209" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H209" s="8"/>
@@ -14603,7 +14712,7 @@
       <c r="F210" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G210" s="55" t="s">
+      <c r="G210" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H210" s="8" t="s">
@@ -14671,13 +14780,13 @@
       <c r="F211" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G211" s="55" t="s">
+      <c r="G211" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H211" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I211" s="56"/>
+      <c r="I211" s="55"/>
       <c r="J211" s="1" t="s">
         <v>20</v>
       </c>
@@ -14737,7 +14846,7 @@
       <c r="F212" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G212" s="55" t="s">
+      <c r="G212" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H212" s="8" t="s">
@@ -14805,7 +14914,7 @@
       <c r="F213" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G213" s="55" t="s">
+      <c r="G213" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H213" s="8" t="s">
@@ -14873,7 +14982,7 @@
       <c r="F214" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G214" s="55" t="s">
+      <c r="G214" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H214" s="8" t="s">
@@ -14941,7 +15050,7 @@
       <c r="F215" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G215" s="55" t="s">
+      <c r="G215" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H215" s="8" t="s">
@@ -15009,7 +15118,7 @@
       <c r="F216" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G216" s="55" t="s">
+      <c r="G216" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H216" s="8" t="s">
@@ -15077,7 +15186,7 @@
       <c r="F217" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G217" s="55" t="s">
+      <c r="G217" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H217" s="8" t="s">
@@ -15145,7 +15254,7 @@
       <c r="F218" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G218" s="55" t="s">
+      <c r="G218" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H218" s="8" t="s">
@@ -15213,7 +15322,7 @@
       <c r="F219" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G219" s="55" t="s">
+      <c r="G219" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H219" s="8" t="s">
@@ -15281,7 +15390,7 @@
       <c r="F220" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G220" s="55" t="s">
+      <c r="G220" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H220" s="8" t="s">
@@ -15349,7 +15458,7 @@
       <c r="F221" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G221" s="55" t="s">
+      <c r="G221" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H221" s="8" t="s">
@@ -15417,7 +15526,7 @@
       <c r="F222" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G222" s="55" t="s">
+      <c r="G222" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H222" s="8" t="s">
@@ -15485,7 +15594,7 @@
       <c r="F223" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G223" s="55" t="s">
+      <c r="G223" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H223" s="8" t="s">
@@ -15553,7 +15662,7 @@
       <c r="F224" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G224" s="55" t="s">
+      <c r="G224" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H224" s="8" t="s">
@@ -15621,7 +15730,7 @@
       <c r="F225" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G225" s="55" t="s">
+      <c r="G225" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H225" s="8" t="s">
@@ -15689,7 +15798,7 @@
       <c r="F226" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G226" s="55" t="s">
+      <c r="G226" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H226" s="8" t="s">
@@ -15757,7 +15866,7 @@
       <c r="F227" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G227" s="55" t="s">
+      <c r="G227" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H227" s="8"/>
@@ -15815,7 +15924,7 @@
       <c r="F228" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G228" s="55" t="s">
+      <c r="G228" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H228" s="8"/>
@@ -15849,7 +15958,7 @@
       <c r="F229" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G229" s="55" t="s">
+      <c r="G229" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H229" s="8"/>
@@ -15891,7 +16000,7 @@
       <c r="F230" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G230" s="55" t="s">
+      <c r="G230" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H230" s="8" t="s">
@@ -15980,7 +16089,7 @@
       <c r="M231" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N231" s="55" t="s">
+      <c r="N231" s="54" t="s">
         <v>247</v>
       </c>
       <c r="O231" s="8" t="s">
@@ -16027,7 +16136,7 @@
       <c r="F232" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G232" s="55" t="s">
+      <c r="G232" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H232" s="8" t="s">
@@ -16095,7 +16204,7 @@
       <c r="F233" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G233" s="55" t="s">
+      <c r="G233" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H233" s="8" t="s">
@@ -16231,7 +16340,7 @@
       <c r="F235" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G235" s="55" t="s">
+      <c r="G235" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H235" s="8" t="s">
@@ -16367,7 +16476,7 @@
       <c r="F237" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G237" s="55" t="s">
+      <c r="G237" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H237" s="8" t="s">
@@ -16435,7 +16544,7 @@
       <c r="F238" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G238" s="55" t="s">
+      <c r="G238" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H238" s="8" t="s">
@@ -16503,7 +16612,7 @@
       <c r="F239" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G239" s="55" t="s">
+      <c r="G239" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H239" s="8" t="s">
@@ -16571,7 +16680,7 @@
       <c r="F240" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G240" s="55" t="s">
+      <c r="G240" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H240" s="8" t="s">
@@ -16639,7 +16748,7 @@
       <c r="F241" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G241" s="55" t="s">
+      <c r="G241" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H241" s="8" t="s">
@@ -16707,7 +16816,7 @@
       <c r="F242" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G242" s="55" t="s">
+      <c r="G242" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H242" s="8" t="s">
@@ -16843,7 +16952,7 @@
       <c r="F244" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G244" s="55" t="s">
+      <c r="G244" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H244" s="8" t="s">
@@ -16911,7 +17020,7 @@
       <c r="F245" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G245" s="55" t="s">
+      <c r="G245" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H245" s="8" t="s">
@@ -16979,7 +17088,7 @@
       <c r="F246" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G246" s="55" t="s">
+      <c r="G246" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H246" s="8" t="s">
@@ -17047,7 +17156,7 @@
       <c r="F247" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G247" s="55" t="s">
+      <c r="G247" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H247" s="8" t="s">
@@ -17068,7 +17177,7 @@
       <c r="M247" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N247" s="55" t="s">
+      <c r="N247" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O247" s="8" t="s">
@@ -17115,7 +17224,7 @@
       <c r="F248" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G248" s="55" t="s">
+      <c r="G248" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H248" s="8" t="s">
@@ -17183,7 +17292,7 @@
       <c r="F249" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G249" s="55" t="s">
+      <c r="G249" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H249" s="8" t="s">
@@ -17251,7 +17360,7 @@
       <c r="F250" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G250" s="55" t="s">
+      <c r="G250" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H250" s="8" t="s">
@@ -17319,7 +17428,7 @@
       <c r="F251" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G251" s="55" t="s">
+      <c r="G251" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H251" s="8" t="s">
@@ -17387,7 +17496,7 @@
       <c r="F252" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G252" s="55" t="s">
+      <c r="G252" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H252" s="8" t="s">
@@ -17455,7 +17564,7 @@
       <c r="F253" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G253" s="55" t="s">
+      <c r="G253" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H253" s="8" t="s">
@@ -17523,7 +17632,7 @@
       <c r="F254" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G254" s="55" t="s">
+      <c r="G254" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H254" s="8" t="s">
@@ -17591,7 +17700,7 @@
       <c r="F255" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G255" s="55" t="s">
+      <c r="G255" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H255" s="8" t="s">
@@ -17659,7 +17768,7 @@
       <c r="F256" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G256" s="55" t="s">
+      <c r="G256" s="54" t="s">
         <v>238</v>
       </c>
       <c r="H256" s="8" t="s">
@@ -17727,7 +17836,7 @@
       <c r="F257" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G257" s="55" t="s">
+      <c r="G257" s="54" t="s">
         <v>238</v>
       </c>
       <c r="H257" s="8" t="s">
@@ -17795,7 +17904,7 @@
       <c r="F258" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G258" s="55" t="s">
+      <c r="G258" s="54" t="s">
         <v>238</v>
       </c>
       <c r="H258" s="8" t="s">
@@ -17863,7 +17972,7 @@
       <c r="F259" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G259" s="55" t="s">
+      <c r="G259" s="54" t="s">
         <v>238</v>
       </c>
       <c r="H259" s="8" t="s">
@@ -17884,7 +17993,7 @@
       <c r="M259" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N259" s="55" t="s">
+      <c r="N259" s="54" t="s">
         <v>206</v>
       </c>
       <c r="O259" s="8" t="s">
@@ -17931,7 +18040,7 @@
       <c r="F260" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G260" s="55" t="s">
+      <c r="G260" s="54" t="s">
         <v>206</v>
       </c>
       <c r="H260" s="8" t="s">
@@ -18067,7 +18176,7 @@
       <c r="F262" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G262" s="55" t="s">
+      <c r="G262" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H262" s="8" t="s">
@@ -18135,7 +18244,7 @@
       <c r="F263" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G263" s="55" t="s">
+      <c r="G263" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H263" s="8" t="s">
@@ -18203,7 +18312,7 @@
       <c r="F264" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G264" s="55" t="s">
+      <c r="G264" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H264" s="8" t="s">
@@ -18271,7 +18380,7 @@
       <c r="F265" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G265" s="55" t="s">
+      <c r="G265" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H265" s="8" t="s">
@@ -18339,7 +18448,7 @@
       <c r="F266" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G266" s="55" t="s">
+      <c r="G266" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H266" s="8" t="s">
@@ -18407,7 +18516,7 @@
       <c r="F267" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G267" s="55" t="s">
+      <c r="G267" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H267" s="8" t="s">
@@ -18475,7 +18584,7 @@
       <c r="F268" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G268" s="55" t="s">
+      <c r="G268" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H268" s="8" t="s">
@@ -18543,7 +18652,7 @@
       <c r="F269" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G269" s="55" t="s">
+      <c r="G269" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H269" s="8" t="s">
@@ -18597,13 +18706,13 @@
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
-      <c r="E270" s="53" t="s">
+      <c r="E270" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F270" s="54" t="s">
+      <c r="F270" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G270" s="54" t="s">
+      <c r="G270" s="53" t="s">
         <v>245</v>
       </c>
       <c r="H270" s="8"/>
@@ -18645,7 +18754,7 @@
       <c r="F271" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G271" s="55" t="s">
+      <c r="G271" s="54" t="s">
         <v>73</v>
       </c>
       <c r="H271" s="8" t="s">
@@ -18734,7 +18843,7 @@
       <c r="M272" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N272" s="55" t="s">
+      <c r="N272" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O272" s="8" t="s">
@@ -18802,7 +18911,7 @@
       <c r="M273" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N273" s="55" t="s">
+      <c r="N273" s="54" t="s">
         <v>244</v>
       </c>
       <c r="O273" s="8" t="s">
@@ -18917,7 +19026,7 @@
       <c r="F275" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G275" s="58" t="s">
+      <c r="G275" s="57" t="s">
         <v>247</v>
       </c>
       <c r="H275" s="8" t="s">
@@ -18985,7 +19094,7 @@
       <c r="F276" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G276" s="58" t="s">
+      <c r="G276" s="57" t="s">
         <v>247</v>
       </c>
       <c r="H276" s="8" t="s">
@@ -19053,7 +19162,7 @@
       <c r="F277" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G277" s="58" t="s">
+      <c r="G277" s="57" t="s">
         <v>247</v>
       </c>
       <c r="H277" s="8" t="s">
@@ -19121,7 +19230,7 @@
       <c r="F278" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G278" s="58" t="s">
+      <c r="G278" s="57" t="s">
         <v>249</v>
       </c>
       <c r="H278" s="8" t="s">
@@ -19189,7 +19298,7 @@
       <c r="F279" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G279" s="58" t="s">
+      <c r="G279" s="57" t="s">
         <v>249</v>
       </c>
       <c r="H279" s="8" t="s">
@@ -19257,7 +19366,7 @@
       <c r="F280" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G280" s="58" t="s">
+      <c r="G280" s="57" t="s">
         <v>202</v>
       </c>
       <c r="H280" s="8" t="s">
@@ -19325,7 +19434,7 @@
       <c r="F281" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G281" s="58" t="s">
+      <c r="G281" s="57" t="s">
         <v>244</v>
       </c>
       <c r="H281" s="8" t="s">
@@ -19393,7 +19502,7 @@
       <c r="F282" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G282" s="58" t="s">
+      <c r="G282" s="57" t="s">
         <v>244</v>
       </c>
       <c r="H282" s="8" t="s">
@@ -19461,7 +19570,7 @@
       <c r="F283" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G283" s="58" t="s">
+      <c r="G283" s="57" t="s">
         <v>243</v>
       </c>
       <c r="H283" s="8" t="s">
@@ -19529,7 +19638,7 @@
       <c r="F284" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G284" s="58" t="s">
+      <c r="G284" s="57" t="s">
         <v>243</v>
       </c>
       <c r="H284" s="8" t="s">
@@ -19597,7 +19706,7 @@
       <c r="F285" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G285" s="58" t="s">
+      <c r="G285" s="57" t="s">
         <v>249</v>
       </c>
       <c r="H285" s="8" t="s">
@@ -19665,13 +19774,13 @@
       <c r="F286" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G286" s="58" t="s">
+      <c r="G286" s="57" t="s">
         <v>249</v>
       </c>
       <c r="H286" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I286" s="56"/>
+      <c r="I286" s="55"/>
       <c r="J286" s="1" t="s">
         <v>20</v>
       </c>
@@ -19731,7 +19840,7 @@
       <c r="F287" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G287" s="58" t="s">
+      <c r="G287" s="57" t="s">
         <v>249</v>
       </c>
       <c r="H287" s="8" t="s">
@@ -19799,7 +19908,7 @@
       <c r="F288" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G288" s="58" t="s">
+      <c r="G288" s="57" t="s">
         <v>249</v>
       </c>
       <c r="H288" s="8" t="s">
@@ -19867,7 +19976,7 @@
       <c r="F289" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G289" s="55" t="s">
+      <c r="G289" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H289" s="8" t="s">
@@ -19935,7 +20044,7 @@
       <c r="F290" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G290" s="55" t="s">
+      <c r="G290" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H290" s="8" t="s">
@@ -20003,7 +20112,7 @@
       <c r="F291" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G291" s="55" t="s">
+      <c r="G291" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H291" s="8" t="s">
@@ -20071,7 +20180,7 @@
       <c r="F292" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G292" s="55" t="s">
+      <c r="G292" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H292" s="8" t="s">
@@ -20139,7 +20248,7 @@
       <c r="F293" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G293" s="55" t="s">
+      <c r="G293" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H293" s="8" t="s">
@@ -20207,7 +20316,7 @@
       <c r="F294" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G294" s="55" t="s">
+      <c r="G294" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H294" s="8" t="s">
@@ -20275,7 +20384,7 @@
       <c r="F295" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G295" s="55" t="s">
+      <c r="G295" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H295" s="8" t="s">
@@ -20343,7 +20452,7 @@
       <c r="F296" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G296" s="55" t="s">
+      <c r="G296" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H296" s="8" t="s">
@@ -20411,7 +20520,7 @@
       <c r="F297" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G297" s="55" t="s">
+      <c r="G297" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H297" s="8" t="s">
@@ -20479,7 +20588,7 @@
       <c r="F298" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G298" s="55" t="s">
+      <c r="G298" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H298" s="8" t="s">
@@ -20547,7 +20656,7 @@
       <c r="F299" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G299" s="55" t="s">
+      <c r="G299" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H299" s="8" t="s">
@@ -20615,7 +20724,7 @@
       <c r="F300" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G300" s="55" t="s">
+      <c r="G300" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H300" s="8" t="s">
@@ -20683,7 +20792,7 @@
       <c r="F301" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G301" s="55" t="s">
+      <c r="G301" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H301" s="8" t="s">
@@ -20751,7 +20860,7 @@
       <c r="F302" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G302" s="55" t="s">
+      <c r="G302" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H302" s="8" t="s">
@@ -20819,13 +20928,13 @@
       <c r="F303" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G303" s="55" t="s">
+      <c r="G303" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H303" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I303" s="54" t="s">
+      <c r="I303" s="53" t="s">
         <v>51</v>
       </c>
       <c r="J303" s="1" t="s">
@@ -20887,7 +20996,7 @@
       <c r="F304" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G304" s="55" t="s">
+      <c r="G304" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H304" s="8" t="s">
@@ -20955,7 +21064,7 @@
       <c r="F305" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G305" s="55" t="s">
+      <c r="G305" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H305" s="8" t="s">
@@ -21023,7 +21132,7 @@
       <c r="F306" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G306" s="55" t="s">
+      <c r="G306" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H306" s="8" t="s">
@@ -21091,7 +21200,7 @@
       <c r="F307" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G307" s="55" t="s">
+      <c r="G307" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H307" s="8" t="s">
@@ -21159,7 +21268,7 @@
       <c r="F308" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G308" s="55" t="s">
+      <c r="G308" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H308" s="8" t="s">
@@ -21227,7 +21336,7 @@
       <c r="F309" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G309" s="55" t="s">
+      <c r="G309" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H309" s="8" t="s">
@@ -21295,7 +21404,7 @@
       <c r="F310" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G310" s="55" t="s">
+      <c r="G310" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H310" s="8" t="s">
@@ -21363,13 +21472,13 @@
       <c r="F311" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G311" s="55" t="s">
+      <c r="G311" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H311" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I311" s="54" t="s">
+      <c r="I311" s="53" t="s">
         <v>51</v>
       </c>
       <c r="J311" s="1" t="s">
@@ -21431,7 +21540,7 @@
       <c r="F312" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G312" s="55" t="s">
+      <c r="G312" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H312" s="8" t="s">
@@ -21567,13 +21676,13 @@
       <c r="F314" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G314" s="55" t="s">
+      <c r="G314" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H314" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I314" s="56"/>
+      <c r="I314" s="55"/>
       <c r="J314" s="1" t="s">
         <v>20</v>
       </c>
@@ -21633,7 +21742,7 @@
       <c r="F315" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G315" s="55" t="s">
+      <c r="G315" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H315" s="8" t="s">
@@ -21701,7 +21810,7 @@
       <c r="F316" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G316" s="55" t="s">
+      <c r="G316" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H316" s="8" t="s">
@@ -21769,13 +21878,13 @@
       <c r="F317" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G317" s="55" t="s">
+      <c r="G317" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H317" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I317" s="54" t="s">
+      <c r="I317" s="53" t="s">
         <v>51</v>
       </c>
       <c r="J317" s="1" t="s">
@@ -21837,7 +21946,7 @@
       <c r="F318" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G318" s="58" t="s">
+      <c r="G318" s="57" t="s">
         <v>244</v>
       </c>
       <c r="H318" s="8" t="s">
@@ -21905,7 +22014,7 @@
       <c r="F319" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G319" s="58" t="s">
+      <c r="G319" s="57" t="s">
         <v>244</v>
       </c>
       <c r="H319" s="8" t="s">
@@ -21994,7 +22103,7 @@
       <c r="M320" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N320" s="58" t="s">
+      <c r="N320" s="57" t="s">
         <v>245</v>
       </c>
       <c r="O320" s="8" t="s">
@@ -22041,7 +22150,7 @@
       <c r="F321" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G321" s="58" t="s">
+      <c r="G321" s="57" t="s">
         <v>245</v>
       </c>
       <c r="H321" s="8" t="s">
@@ -22130,7 +22239,7 @@
       <c r="M322" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N322" s="58" t="s">
+      <c r="N322" s="57" t="s">
         <v>202</v>
       </c>
       <c r="O322" s="8" t="s">
@@ -22177,7 +22286,7 @@
       <c r="F323" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G323" s="58" t="s">
+      <c r="G323" s="57" t="s">
         <v>202</v>
       </c>
       <c r="H323" s="8" t="s">
@@ -22245,7 +22354,7 @@
       <c r="F324" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G324" s="58" t="s">
+      <c r="G324" s="57" t="s">
         <v>247</v>
       </c>
       <c r="H324" s="8" t="s">
@@ -22313,7 +22422,7 @@
       <c r="F325" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G325" s="58" t="s">
+      <c r="G325" s="57" t="s">
         <v>247</v>
       </c>
       <c r="H325" s="8" t="s">
@@ -22381,7 +22490,7 @@
       <c r="F326" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G326" s="58" t="s">
+      <c r="G326" s="57" t="s">
         <v>242</v>
       </c>
       <c r="H326" s="8" t="s">
@@ -22470,7 +22579,7 @@
       <c r="M327" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N327" s="58" t="s">
+      <c r="N327" s="57" t="s">
         <v>241</v>
       </c>
       <c r="O327" s="8" t="s">
@@ -22517,7 +22626,7 @@
       <c r="F328" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G328" s="58" t="s">
+      <c r="G328" s="57" t="s">
         <v>250</v>
       </c>
       <c r="H328" s="8" t="s">
@@ -22585,7 +22694,7 @@
       <c r="F329" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G329" s="58" t="s">
+      <c r="G329" s="57" t="s">
         <v>250</v>
       </c>
       <c r="H329" s="8" t="s">
@@ -22653,13 +22762,13 @@
       <c r="F330" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G330" s="58" t="s">
+      <c r="G330" s="57" t="s">
         <v>241</v>
       </c>
       <c r="H330" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I330" s="56"/>
+      <c r="I330" s="55"/>
       <c r="J330" s="1" t="s">
         <v>20</v>
       </c>
@@ -22719,7 +22828,7 @@
       <c r="F331" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G331" s="55" t="s">
+      <c r="G331" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H331" s="8" t="s">
@@ -22787,7 +22896,7 @@
       <c r="F332" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G332" s="55" t="s">
+      <c r="G332" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H332" s="8" t="s">
@@ -22855,7 +22964,7 @@
       <c r="F333" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G333" s="55" t="s">
+      <c r="G333" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H333" s="8" t="s">
@@ -22876,7 +22985,7 @@
       <c r="M333" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N333" s="55" t="s">
+      <c r="N333" s="54" t="s">
         <v>245</v>
       </c>
       <c r="O333" s="8" t="s">
@@ -22923,7 +23032,7 @@
       <c r="F334" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G334" s="55" t="s">
+      <c r="G334" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H334" s="8" t="s">
@@ -22991,7 +23100,7 @@
       <c r="F335" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G335" s="55" t="s">
+      <c r="G335" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H335" s="8" t="s">
@@ -23059,7 +23168,7 @@
       <c r="F336" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G336" s="55" t="s">
+      <c r="G336" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H336" s="8" t="s">
@@ -23127,7 +23236,7 @@
       <c r="F337" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G337" s="55" t="s">
+      <c r="G337" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H337" s="8" t="s">
@@ -23195,7 +23304,7 @@
       <c r="F338" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G338" s="55" t="s">
+      <c r="G338" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H338" s="8" t="s">
@@ -23263,7 +23372,7 @@
       <c r="F339" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G339" s="55" t="s">
+      <c r="G339" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H339" s="8" t="s">
@@ -23331,7 +23440,7 @@
       <c r="F340" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G340" s="55" t="s">
+      <c r="G340" s="54" t="s">
         <v>206</v>
       </c>
       <c r="H340" s="8" t="s">
@@ -23399,7 +23508,7 @@
       <c r="F341" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G341" s="55" t="s">
+      <c r="G341" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H341" s="8" t="s">
@@ -23467,7 +23576,7 @@
       <c r="F342" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G342" s="55" t="s">
+      <c r="G342" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H342" s="8" t="s">
@@ -23535,13 +23644,13 @@
       <c r="F343" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G343" s="55" t="s">
+      <c r="G343" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H343" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I343" s="56"/>
+      <c r="I343" s="55"/>
       <c r="J343" s="1" t="s">
         <v>20</v>
       </c>
@@ -23601,13 +23710,13 @@
       <c r="F344" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G344" s="55" t="s">
+      <c r="G344" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H344" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I344" s="56"/>
+      <c r="I344" s="55"/>
       <c r="J344" s="1" t="s">
         <v>20</v>
       </c>
@@ -23667,7 +23776,7 @@
       <c r="F345" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G345" s="55" t="s">
+      <c r="G345" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H345" s="8" t="s">
@@ -23756,7 +23865,7 @@
       <c r="M346" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N346" s="55" t="s">
+      <c r="N346" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O346" s="8" t="s">
@@ -23803,7 +23912,7 @@
       <c r="F347" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G347" s="55" t="s">
+      <c r="G347" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H347" s="8" t="s">
@@ -23871,7 +23980,7 @@
       <c r="F348" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G348" s="55" t="s">
+      <c r="G348" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H348" s="8" t="s">
@@ -23939,7 +24048,7 @@
       <c r="F349" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G349" s="55" t="s">
+      <c r="G349" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H349" s="8" t="s">
@@ -24007,7 +24116,7 @@
       <c r="F350" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G350" s="55" t="s">
+      <c r="G350" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H350" s="8" t="s">
@@ -24075,7 +24184,7 @@
       <c r="F351" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G351" s="55" t="s">
+      <c r="G351" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H351" s="8" t="s">
@@ -24143,7 +24252,7 @@
       <c r="F352" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G352" s="55" t="s">
+      <c r="G352" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H352" s="8" t="s">
@@ -24211,7 +24320,7 @@
       <c r="F353" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G353" s="55" t="s">
+      <c r="G353" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H353" s="8" t="s">
@@ -24279,7 +24388,7 @@
       <c r="F354" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G354" s="55" t="s">
+      <c r="G354" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H354" s="8" t="s">
@@ -24347,7 +24456,7 @@
       <c r="F355" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G355" s="55" t="s">
+      <c r="G355" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H355" s="8" t="s">
@@ -24368,7 +24477,7 @@
       <c r="M355" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N355" s="55" t="s">
+      <c r="N355" s="54" t="s">
         <v>243</v>
       </c>
       <c r="O355" s="8" t="s">
@@ -24415,7 +24524,7 @@
       <c r="F356" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G356" s="55" t="s">
+      <c r="G356" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H356" s="8" t="s">
@@ -24483,7 +24592,7 @@
       <c r="F357" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G357" s="55" t="s">
+      <c r="G357" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H357" s="8" t="s">
@@ -24572,7 +24681,7 @@
       <c r="M358" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N358" s="55" t="s">
+      <c r="N358" s="54" t="s">
         <v>249</v>
       </c>
       <c r="O358" s="8" t="s">
@@ -24619,7 +24728,7 @@
       <c r="F359" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G359" s="55" t="s">
+      <c r="G359" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H359" s="8" t="s">
@@ -24640,7 +24749,7 @@
       <c r="M359" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N359" s="55" t="s">
+      <c r="N359" s="54" t="s">
         <v>244</v>
       </c>
       <c r="O359" s="8" t="s">
@@ -24687,7 +24796,7 @@
       <c r="F360" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G360" s="55" t="s">
+      <c r="G360" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H360" s="8" t="s">
@@ -24755,7 +24864,7 @@
       <c r="F361" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G361" s="55" t="s">
+      <c r="G361" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H361" s="8" t="s">
@@ -24823,7 +24932,7 @@
       <c r="F362" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G362" s="55" t="s">
+      <c r="G362" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H362" s="8" t="s">
@@ -24912,7 +25021,7 @@
       <c r="M363" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N363" s="55" t="s">
+      <c r="N363" s="54" t="s">
         <v>243</v>
       </c>
       <c r="O363" s="8" t="s">
@@ -24959,7 +25068,7 @@
       <c r="F364" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G364" s="55" t="s">
+      <c r="G364" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H364" s="8" t="s">
@@ -25027,7 +25136,7 @@
       <c r="F365" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G365" s="55" t="s">
+      <c r="G365" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H365" s="8" t="s">
@@ -25081,13 +25190,13 @@
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
-      <c r="E366" s="53" t="s">
+      <c r="E366" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="F366" s="54" t="s">
+      <c r="F366" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G366" s="54" t="s">
+      <c r="G366" s="53" t="s">
         <v>249</v>
       </c>
       <c r="H366" s="8"/>
@@ -25129,7 +25238,7 @@
       <c r="F367" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G367" s="55" t="s">
+      <c r="G367" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H367" s="8" t="s">
@@ -25197,7 +25306,7 @@
       <c r="F368" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G368" s="55" t="s">
+      <c r="G368" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H368" s="8"/>
@@ -25263,7 +25372,7 @@
       <c r="F369" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G369" s="55" t="s">
+      <c r="G369" s="54" t="s">
         <v>238</v>
       </c>
       <c r="H369" s="8" t="s">
@@ -25284,7 +25393,7 @@
       <c r="M369" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N369" s="55" t="s">
+      <c r="N369" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O369" s="8" t="s">
@@ -25331,7 +25440,7 @@
       <c r="F370" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G370" s="55" t="s">
+      <c r="G370" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H370" s="8" t="s">
@@ -25399,7 +25508,7 @@
       <c r="F371" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G371" s="55" t="s">
+      <c r="G371" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H371" s="8" t="s">
@@ -25467,7 +25576,7 @@
       <c r="F372" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G372" s="55" t="s">
+      <c r="G372" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H372" s="8" t="s">
@@ -25535,7 +25644,7 @@
       <c r="F373" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G373" s="55" t="s">
+      <c r="G373" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H373" s="8" t="s">
@@ -25603,7 +25712,7 @@
       <c r="F374" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G374" s="58" t="s">
+      <c r="G374" s="57" t="s">
         <v>238</v>
       </c>
       <c r="H374" s="8" t="s">
@@ -25671,7 +25780,7 @@
       <c r="F375" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G375" s="58" t="s">
+      <c r="G375" s="57" t="s">
         <v>246</v>
       </c>
       <c r="H375" s="8" t="s">
@@ -25725,13 +25834,13 @@
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
-      <c r="E376" s="53" t="s">
+      <c r="E376" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F376" s="54" t="s">
+      <c r="F376" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G376" s="54" t="s">
+      <c r="G376" s="53" t="s">
         <v>246</v>
       </c>
       <c r="H376" s="8"/>
@@ -25773,7 +25882,7 @@
       <c r="F377" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G377" s="58" t="s">
+      <c r="G377" s="57" t="s">
         <v>242</v>
       </c>
       <c r="H377" s="8" t="s">
@@ -25841,7 +25950,7 @@
       <c r="F378" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G378" s="52" t="s">
+      <c r="G378" s="51" t="s">
         <v>249</v>
       </c>
       <c r="H378" s="8" t="s">
@@ -25909,7 +26018,7 @@
       <c r="F379" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G379" s="52" t="s">
+      <c r="G379" s="51" t="s">
         <v>250</v>
       </c>
       <c r="H379" s="8" t="s">
@@ -25977,7 +26086,7 @@
       <c r="F380" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G380" s="52" t="s">
+      <c r="G380" s="51" t="s">
         <v>240</v>
       </c>
       <c r="H380" s="8" t="s">
@@ -26066,7 +26175,7 @@
       <c r="M381" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N381" s="52" t="s">
+      <c r="N381" s="51" t="s">
         <v>202</v>
       </c>
       <c r="O381" s="8" t="s">
@@ -26113,7 +26222,7 @@
       <c r="F382" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G382" s="52" t="s">
+      <c r="G382" s="51" t="s">
         <v>240</v>
       </c>
       <c r="H382" s="8" t="s">
@@ -26181,7 +26290,7 @@
       <c r="F383" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G383" s="52" t="s">
+      <c r="G383" s="51" t="s">
         <v>240</v>
       </c>
       <c r="H383" s="8" t="s">
@@ -26249,7 +26358,7 @@
       <c r="F384" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G384" s="52" t="s">
+      <c r="G384" s="51" t="s">
         <v>238</v>
       </c>
       <c r="H384" s="8" t="s">
@@ -26270,7 +26379,7 @@
       <c r="M384" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N384" s="52" t="s">
+      <c r="N384" s="51" t="s">
         <v>206</v>
       </c>
       <c r="O384" s="8" t="s">
@@ -26317,7 +26426,7 @@
       <c r="F385" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G385" s="52" t="s">
+      <c r="G385" s="51" t="s">
         <v>206</v>
       </c>
       <c r="H385" s="8" t="s">
@@ -26453,7 +26562,7 @@
       <c r="F387" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G387" s="52" t="s">
+      <c r="G387" s="51" t="s">
         <v>242</v>
       </c>
       <c r="H387" s="8" t="s">
@@ -26521,7 +26630,7 @@
       <c r="F388" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G388" s="52" t="s">
+      <c r="G388" s="51" t="s">
         <v>241</v>
       </c>
       <c r="H388" s="8" t="s">
@@ -26589,7 +26698,7 @@
       <c r="F389" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G389" s="52" t="s">
+      <c r="G389" s="51" t="s">
         <v>241</v>
       </c>
       <c r="H389" s="8" t="s">
@@ -26657,7 +26766,7 @@
       <c r="F390" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G390" s="52" t="s">
+      <c r="G390" s="51" t="s">
         <v>251</v>
       </c>
       <c r="H390" s="8" t="s">
@@ -26725,7 +26834,7 @@
       <c r="F391" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G391" s="52" t="s">
+      <c r="G391" s="51" t="s">
         <v>251</v>
       </c>
       <c r="H391" s="8" t="s">
@@ -26793,7 +26902,7 @@
       <c r="F392" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G392" s="52" t="s">
+      <c r="G392" s="51" t="s">
         <v>242</v>
       </c>
       <c r="H392" s="8" t="s">
@@ -26861,7 +26970,7 @@
       <c r="F393" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G393" s="52" t="s">
+      <c r="G393" s="51" t="s">
         <v>242</v>
       </c>
       <c r="H393" s="8" t="s">
@@ -26929,7 +27038,7 @@
       <c r="F394" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G394" s="52" t="s">
+      <c r="G394" s="51" t="s">
         <v>250</v>
       </c>
       <c r="H394" s="8" t="s">
@@ -26997,7 +27106,7 @@
       <c r="F395" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G395" s="52" t="s">
+      <c r="G395" s="51" t="s">
         <v>240</v>
       </c>
       <c r="H395" s="8" t="s">
@@ -27065,7 +27174,7 @@
       <c r="F396" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G396" s="52" t="s">
+      <c r="G396" s="51" t="s">
         <v>250</v>
       </c>
       <c r="H396" s="8" t="s">
@@ -27133,7 +27242,7 @@
       <c r="F397" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G397" s="52" t="s">
+      <c r="G397" s="51" t="s">
         <v>250</v>
       </c>
       <c r="H397" s="8" t="s">
@@ -27201,7 +27310,7 @@
       <c r="F398" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G398" s="52" t="s">
+      <c r="G398" s="51" t="s">
         <v>249</v>
       </c>
       <c r="H398" s="8" t="s">
@@ -27269,7 +27378,7 @@
       <c r="F399" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G399" s="52" t="s">
+      <c r="G399" s="51" t="s">
         <v>250</v>
       </c>
       <c r="H399" s="8" t="s">
@@ -27337,7 +27446,7 @@
       <c r="F400" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G400" s="52" t="s">
+      <c r="G400" s="51" t="s">
         <v>242</v>
       </c>
       <c r="H400" s="8" t="s">
@@ -27405,7 +27514,7 @@
       <c r="F401" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G401" s="52" t="s">
+      <c r="G401" s="51" t="s">
         <v>247</v>
       </c>
       <c r="H401" s="8" t="s">
@@ -27473,7 +27582,7 @@
       <c r="F402" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G402" s="52" t="s">
+      <c r="G402" s="51" t="s">
         <v>247</v>
       </c>
       <c r="H402" s="8" t="s">
@@ -27541,7 +27650,7 @@
       <c r="F403" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G403" s="52" t="s">
+      <c r="G403" s="51" t="s">
         <v>247</v>
       </c>
       <c r="H403" s="8" t="s">
@@ -27630,7 +27739,7 @@
       <c r="M404" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N404" s="52" t="s">
+      <c r="N404" s="51" t="s">
         <v>249</v>
       </c>
       <c r="O404" s="8" t="s">
@@ -27677,7 +27786,7 @@
       <c r="F405" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G405" s="52" t="s">
+      <c r="G405" s="51" t="s">
         <v>251</v>
       </c>
       <c r="H405" s="8" t="s">
@@ -27745,7 +27854,7 @@
       <c r="F406" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G406" s="52" t="s">
+      <c r="G406" s="51" t="s">
         <v>251</v>
       </c>
       <c r="H406" s="8" t="s">
@@ -27813,7 +27922,7 @@
       <c r="F407" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G407" s="52" t="s">
+      <c r="G407" s="51" t="s">
         <v>249</v>
       </c>
       <c r="H407" s="8" t="s">
@@ -27881,7 +27990,7 @@
       <c r="F408" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G408" s="52" t="s">
+      <c r="G408" s="51" t="s">
         <v>249</v>
       </c>
       <c r="H408" s="8" t="s">
@@ -27949,7 +28058,7 @@
       <c r="F409" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G409" s="52" t="s">
+      <c r="G409" s="51" t="s">
         <v>246</v>
       </c>
       <c r="H409" s="8" t="s">
@@ -28017,7 +28126,7 @@
       <c r="F410" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G410" s="52" t="s">
+      <c r="G410" s="51" t="s">
         <v>251</v>
       </c>
       <c r="H410" s="8" t="s">
@@ -28085,7 +28194,7 @@
       <c r="F411" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G411" s="52" t="s">
+      <c r="G411" s="51" t="s">
         <v>251</v>
       </c>
       <c r="H411" s="8" t="s">
@@ -28139,13 +28248,13 @@
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
-      <c r="E412" s="53" t="s">
+      <c r="E412" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F412" s="54" t="s">
+      <c r="F412" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G412" s="54" t="s">
+      <c r="G412" s="53" t="s">
         <v>250</v>
       </c>
       <c r="H412" s="8"/>
@@ -28187,7 +28296,7 @@
       <c r="F413" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G413" s="52" t="s">
+      <c r="G413" s="51" t="s">
         <v>240</v>
       </c>
       <c r="H413" s="8" t="s">
@@ -28255,7 +28364,7 @@
       <c r="F414" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G414" s="52" t="s">
+      <c r="G414" s="51" t="s">
         <v>240</v>
       </c>
       <c r="H414" s="8" t="s">
@@ -28344,7 +28453,7 @@
       <c r="M415" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N415" s="52" t="s">
+      <c r="N415" s="51" t="s">
         <v>247</v>
       </c>
       <c r="O415" s="8" t="s">
@@ -28391,7 +28500,7 @@
       <c r="F416" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G416" s="55" t="s">
+      <c r="G416" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H416" s="8" t="s">
@@ -28459,7 +28568,7 @@
       <c r="F417" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G417" s="55" t="s">
+      <c r="G417" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H417" s="8" t="s">
@@ -28548,7 +28657,7 @@
       <c r="M418" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N418" s="55" t="s">
+      <c r="N418" s="54" t="s">
         <v>240</v>
       </c>
       <c r="O418" s="8" t="s">
@@ -28595,7 +28704,7 @@
       <c r="F419" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G419" s="55" t="s">
+      <c r="G419" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H419" s="8" t="s">
@@ -28663,7 +28772,7 @@
       <c r="F420" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G420" s="55" t="s">
+      <c r="G420" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H420" s="8" t="s">
@@ -28731,7 +28840,7 @@
       <c r="F421" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G421" s="55" t="s">
+      <c r="G421" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H421" s="8" t="s">
@@ -28867,7 +28976,7 @@
       <c r="F423" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G423" s="55" t="s">
+      <c r="G423" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H423" s="8" t="s">
@@ -28935,13 +29044,13 @@
       <c r="F424" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G424" s="55" t="s">
+      <c r="G424" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H424" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I424" s="56"/>
+      <c r="I424" s="55"/>
       <c r="J424" s="1" t="s">
         <v>20</v>
       </c>
@@ -29001,7 +29110,7 @@
       <c r="F425" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G425" s="55" t="s">
+      <c r="G425" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H425" s="8" t="s">
@@ -29069,7 +29178,7 @@
       <c r="F426" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G426" s="55" t="s">
+      <c r="G426" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H426" s="8" t="s">
@@ -29137,7 +29246,7 @@
       <c r="F427" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G427" s="55" t="s">
+      <c r="G427" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H427" s="8" t="s">
@@ -29205,7 +29314,7 @@
       <c r="F428" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G428" s="55" t="s">
+      <c r="G428" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H428" s="8" t="s">
@@ -29273,7 +29382,7 @@
       <c r="F429" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G429" s="55" t="s">
+      <c r="G429" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H429" s="8"/>
@@ -29339,7 +29448,7 @@
       <c r="F430" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G430" s="55" t="s">
+      <c r="G430" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H430" s="8" t="s">
@@ -29407,7 +29516,7 @@
       <c r="F431" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G431" s="55" t="s">
+      <c r="G431" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H431" s="8" t="s">
@@ -29428,7 +29537,7 @@
       <c r="M431" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="N431" s="55" t="s">
+      <c r="N431" s="54" t="s">
         <v>206</v>
       </c>
       <c r="O431" s="8" t="s">
@@ -29461,13 +29570,13 @@
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
-      <c r="E432" s="53" t="s">
+      <c r="E432" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="F432" s="54" t="s">
+      <c r="F432" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G432" s="54" t="s">
+      <c r="G432" s="53" t="s">
         <v>202</v>
       </c>
       <c r="H432" s="8"/>
@@ -29476,7 +29585,7 @@
       <c r="K432" s="1"/>
       <c r="L432" s="1"/>
       <c r="M432" s="8"/>
-      <c r="N432" s="55"/>
+      <c r="N432" s="54"/>
       <c r="O432" s="8"/>
       <c r="P432" s="8"/>
       <c r="Q432" s="8"/>
@@ -29509,7 +29618,7 @@
       <c r="F433" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G433" s="55" t="s">
+      <c r="G433" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H433" s="8" t="s">
@@ -29530,7 +29639,7 @@
       <c r="M433" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N433" s="55" t="s">
+      <c r="N433" s="54" t="s">
         <v>251</v>
       </c>
       <c r="O433" s="8" t="s">
@@ -29577,7 +29686,7 @@
       <c r="F434" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G434" s="55" t="s">
+      <c r="G434" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H434" s="8" t="s">
@@ -29645,7 +29754,7 @@
       <c r="F435" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G435" s="55" t="s">
+      <c r="G435" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H435" s="8" t="s">
@@ -29713,7 +29822,7 @@
       <c r="F436" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G436" s="55" t="s">
+      <c r="G436" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H436" s="8" t="s">
@@ -29802,7 +29911,7 @@
       <c r="M437" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N437" s="55" t="s">
+      <c r="N437" s="54" t="s">
         <v>250</v>
       </c>
       <c r="O437" s="8" t="s">
@@ -29849,7 +29958,7 @@
       <c r="F438" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G438" s="55" t="s">
+      <c r="G438" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H438" s="8" t="s">
@@ -29917,7 +30026,7 @@
       <c r="F439" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G439" s="55" t="s">
+      <c r="G439" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H439" s="8" t="s">
@@ -30053,7 +30162,7 @@
       <c r="F441" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G441" s="55" t="s">
+      <c r="G441" s="54" t="s">
         <v>206</v>
       </c>
       <c r="H441" s="8" t="s">
@@ -30189,7 +30298,7 @@
       <c r="F443" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G443" s="55" t="s">
+      <c r="G443" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H443" s="8" t="s">
@@ -30257,7 +30366,7 @@
       <c r="F444" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G444" s="55" t="s">
+      <c r="G444" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H444" s="8" t="s">
@@ -30325,7 +30434,7 @@
       <c r="F445" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G445" s="55" t="s">
+      <c r="G445" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H445" s="8" t="s">
@@ -30414,7 +30523,7 @@
       <c r="M446" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N446" s="55" t="s">
+      <c r="N446" s="54" t="s">
         <v>244</v>
       </c>
       <c r="O446" s="8" t="s">
@@ -30461,7 +30570,7 @@
       <c r="F447" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G447" s="55" t="s">
+      <c r="G447" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H447" s="8" t="s">
@@ -30529,7 +30638,7 @@
       <c r="F448" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G448" s="55" t="s">
+      <c r="G448" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H448" s="8" t="s">
@@ -30597,7 +30706,7 @@
       <c r="F449" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G449" s="55" t="s">
+      <c r="G449" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H449" s="8" t="s">
@@ -30686,7 +30795,7 @@
       <c r="M450" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N450" s="55" t="s">
+      <c r="N450" s="54" t="s">
         <v>244</v>
       </c>
       <c r="O450" s="8" t="s">
@@ -30733,7 +30842,7 @@
       <c r="F451" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G451" s="55" t="s">
+      <c r="G451" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H451" s="8" t="s">
@@ -30801,7 +30910,7 @@
       <c r="F452" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G452" s="55" t="s">
+      <c r="G452" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H452" s="8" t="s">
@@ -30890,7 +30999,7 @@
       <c r="M453" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N453" s="55" t="s">
+      <c r="N453" s="54" t="s">
         <v>244</v>
       </c>
       <c r="O453" s="8" t="s">
@@ -30937,7 +31046,7 @@
       <c r="F454" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G454" s="55" t="s">
+      <c r="G454" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H454" s="8" t="s">
@@ -31026,7 +31135,7 @@
       <c r="M455" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N455" s="55" t="s">
+      <c r="N455" s="54" t="s">
         <v>245</v>
       </c>
       <c r="O455" s="8" t="s">
@@ -31073,7 +31182,7 @@
       <c r="F456" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G456" s="55" t="s">
+      <c r="G456" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H456" s="8" t="s">
@@ -31141,7 +31250,7 @@
       <c r="F457" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G457" s="55" t="s">
+      <c r="G457" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H457" s="8" t="s">
@@ -31209,7 +31318,7 @@
       <c r="F458" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G458" s="55" t="s">
+      <c r="G458" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H458" s="8" t="s">
@@ -31277,13 +31386,13 @@
       <c r="F459" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G459" s="55" t="s">
+      <c r="G459" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H459" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I459" s="56"/>
+      <c r="I459" s="55"/>
       <c r="J459" s="1" t="s">
         <v>20</v>
       </c>
@@ -31343,7 +31452,7 @@
       <c r="F460" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G460" s="55" t="s">
+      <c r="G460" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H460" s="8" t="s">
@@ -31411,7 +31520,7 @@
       <c r="F461" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G461" s="55" t="s">
+      <c r="G461" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H461" s="8" t="s">
@@ -31479,7 +31588,7 @@
       <c r="F462" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G462" s="55" t="s">
+      <c r="G462" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H462" s="8" t="s">
@@ -31547,7 +31656,7 @@
       <c r="F463" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G463" s="55" t="s">
+      <c r="G463" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H463" s="8" t="s">
@@ -31615,7 +31724,7 @@
       <c r="F464" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G464" s="55" t="s">
+      <c r="G464" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H464" s="8" t="s">
@@ -31683,7 +31792,7 @@
       <c r="F465" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G465" s="55" t="s">
+      <c r="G465" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H465" s="8" t="s">
@@ -31732,71 +31841,71 @@
       <c r="Y465" s="4"/>
       <c r="Z465" s="4"/>
     </row>
-    <row r="466" spans="1:26" s="67" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="64">
+    <row r="466" spans="1:26" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="63">
         <v>380</v>
       </c>
-      <c r="B466" s="64">
+      <c r="B466" s="63">
         <v>27</v>
       </c>
-      <c r="C466" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="D466" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="E466" s="64" t="s">
+      <c r="C466" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D466" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E466" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="F466" s="65" t="s">
+      <c r="F466" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="G466" s="65" t="s">
+      <c r="G466" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="H466" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="I466" s="65"/>
-      <c r="J466" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="K466" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="L466" s="64" t="s">
+      <c r="H466" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I466" s="64"/>
+      <c r="J466" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="K466" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="L466" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="M466" s="65" t="s">
+      <c r="M466" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="N466" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="O466" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="P466" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q466" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="R466" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="S466" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="T466" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="U466" s="66"/>
-      <c r="V466" s="66"/>
-      <c r="W466" s="66"/>
-      <c r="X466" s="66"/>
-      <c r="Y466" s="66"/>
-      <c r="Z466" s="66"/>
+      <c r="N466" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="O466" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="P466" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q466" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="R466" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="S466" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="T466" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="U466" s="65"/>
+      <c r="V466" s="65"/>
+      <c r="W466" s="65"/>
+      <c r="X466" s="65"/>
+      <c r="Y466" s="65"/>
+      <c r="Z466" s="65"/>
     </row>
     <row r="467" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
@@ -31817,7 +31926,7 @@
       <c r="F467" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G467" s="55" t="s">
+      <c r="G467" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H467" s="8" t="s">
@@ -31885,7 +31994,7 @@
       <c r="F468" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G468" s="55" t="s">
+      <c r="G468" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H468" s="8" t="s">
@@ -31953,7 +32062,7 @@
       <c r="F469" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G469" s="55" t="s">
+      <c r="G469" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H469" s="8" t="s">
@@ -32021,7 +32130,7 @@
       <c r="F470" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G470" s="55" t="s">
+      <c r="G470" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H470" s="8" t="s">
@@ -32089,7 +32198,7 @@
       <c r="F471" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G471" s="55" t="s">
+      <c r="G471" s="54" t="s">
         <v>206</v>
       </c>
       <c r="H471" s="8" t="s">
@@ -32225,7 +32334,7 @@
       <c r="F473" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G473" s="55" t="s">
+      <c r="G473" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H473" s="8" t="s">
@@ -32293,7 +32402,7 @@
       <c r="F474" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G474" s="55" t="s">
+      <c r="G474" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H474" s="8" t="s">
@@ -32361,7 +32470,7 @@
       <c r="F475" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G475" s="55" t="s">
+      <c r="G475" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H475" s="8" t="s">
@@ -32497,7 +32606,7 @@
       <c r="F477" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G477" s="55" t="s">
+      <c r="G477" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H477" s="8" t="s">
@@ -32565,7 +32674,7 @@
       <c r="F478" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G478" s="55" t="s">
+      <c r="G478" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H478" s="8" t="s">
@@ -32633,7 +32742,7 @@
       <c r="F479" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G479" s="55" t="s">
+      <c r="G479" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H479" s="8" t="s">
@@ -32701,7 +32810,7 @@
       <c r="F480" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G480" s="55" t="s">
+      <c r="G480" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H480" s="8" t="s">
@@ -32769,7 +32878,7 @@
       <c r="F481" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G481" s="55" t="s">
+      <c r="G481" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H481" s="8" t="s">
@@ -32837,7 +32946,7 @@
       <c r="F482" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G482" s="55" t="s">
+      <c r="G482" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H482" s="8" t="s">
@@ -32926,7 +33035,7 @@
       <c r="M483" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N483" s="55" t="s">
+      <c r="N483" s="54" t="s">
         <v>250</v>
       </c>
       <c r="O483" s="8" t="s">
@@ -32973,7 +33082,7 @@
       <c r="F484" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G484" s="55" t="s">
+      <c r="G484" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H484" s="8" t="s">
@@ -33041,7 +33150,7 @@
       <c r="F485" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G485" s="55" t="s">
+      <c r="G485" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H485" s="8" t="s">
@@ -33109,7 +33218,7 @@
       <c r="F486" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G486" s="55" t="s">
+      <c r="G486" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H486" s="8" t="s">
@@ -33177,7 +33286,7 @@
       <c r="F487" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G487" s="55" t="s">
+      <c r="G487" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H487" s="8" t="s">
@@ -33313,7 +33422,7 @@
       <c r="F489" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G489" s="55" t="s">
+      <c r="G489" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H489" s="8" t="s">
@@ -33381,7 +33490,7 @@
       <c r="F490" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G490" s="55" t="s">
+      <c r="G490" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H490" s="8" t="s">
@@ -33449,7 +33558,7 @@
       <c r="F491" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G491" s="55" t="s">
+      <c r="G491" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H491" s="8" t="s">
@@ -33517,7 +33626,7 @@
       <c r="F492" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G492" s="55" t="s">
+      <c r="G492" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H492" s="8" t="s">
@@ -33585,7 +33694,7 @@
       <c r="F493" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G493" s="55" t="s">
+      <c r="G493" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H493" s="8" t="s">
@@ -33653,7 +33762,7 @@
       <c r="F494" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G494" s="55" t="s">
+      <c r="G494" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H494" s="8" t="s">
@@ -33721,10 +33830,10 @@
       <c r="F495" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G495" s="55" t="s">
+      <c r="G495" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="H495" s="56"/>
+      <c r="H495" s="55"/>
       <c r="I495" s="8" t="s">
         <v>20</v>
       </c>
@@ -33787,7 +33896,7 @@
       <c r="F496" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G496" s="55" t="s">
+      <c r="G496" s="54" t="s">
         <v>238</v>
       </c>
       <c r="H496" s="8" t="s">
@@ -33855,7 +33964,7 @@
       <c r="F497" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G497" s="55" t="s">
+      <c r="G497" s="54" t="s">
         <v>206</v>
       </c>
       <c r="H497" s="8" t="s">
@@ -33991,7 +34100,7 @@
       <c r="F499" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G499" s="55" t="s">
+      <c r="G499" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H499" s="8" t="s">
@@ -34059,7 +34168,7 @@
       <c r="F500" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G500" s="55" t="s">
+      <c r="G500" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H500" s="8" t="s">
@@ -34127,7 +34236,7 @@
       <c r="F501" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G501" s="55" t="s">
+      <c r="G501" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H501" s="8" t="s">
@@ -34195,7 +34304,7 @@
       <c r="F502" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G502" s="55" t="s">
+      <c r="G502" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H502" s="8" t="s">
@@ -34216,7 +34325,7 @@
       <c r="M502" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N502" s="55" t="s">
+      <c r="N502" s="54" t="s">
         <v>249</v>
       </c>
       <c r="O502" s="8" t="s">
@@ -34263,7 +34372,7 @@
       <c r="F503" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G503" s="55" t="s">
+      <c r="G503" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H503" s="8" t="s">
@@ -34331,7 +34440,7 @@
       <c r="F504" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G504" s="55" t="s">
+      <c r="G504" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H504" s="8" t="s">
@@ -34399,7 +34508,7 @@
       <c r="F505" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G505" s="55" t="s">
+      <c r="G505" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H505" s="8" t="s">
@@ -34467,7 +34576,7 @@
       <c r="F506" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G506" s="55" t="s">
+      <c r="G506" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H506" s="8" t="s">
@@ -34535,7 +34644,7 @@
       <c r="F507" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G507" s="55" t="s">
+      <c r="G507" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H507" s="8" t="s">
@@ -34603,7 +34712,7 @@
       <c r="F508" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G508" s="55" t="s">
+      <c r="G508" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H508" s="8" t="s">
@@ -34671,13 +34780,13 @@
       <c r="F509" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G509" s="55" t="s">
+      <c r="G509" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H509" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I509" s="56"/>
+      <c r="I509" s="55"/>
       <c r="J509" s="1" t="s">
         <v>20</v>
       </c>
@@ -34737,7 +34846,7 @@
       <c r="F510" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G510" s="55" t="s">
+      <c r="G510" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H510" s="8" t="s">
@@ -34805,7 +34914,7 @@
       <c r="F511" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G511" s="55" t="s">
+      <c r="G511" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H511" s="8" t="s">
@@ -34826,7 +34935,7 @@
       <c r="M511" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N511" s="55" t="s">
+      <c r="N511" s="54" t="s">
         <v>242</v>
       </c>
       <c r="O511" s="8" t="s">
@@ -34873,7 +34982,7 @@
       <c r="F512" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G512" s="55" t="s">
+      <c r="G512" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H512" s="8" t="s">
@@ -34941,7 +35050,7 @@
       <c r="F513" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G513" s="55" t="s">
+      <c r="G513" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H513" s="8" t="s">
@@ -34962,7 +35071,7 @@
       <c r="M513" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N513" s="55" t="s">
+      <c r="N513" s="54" t="s">
         <v>241</v>
       </c>
       <c r="O513" s="8" t="s">
@@ -35009,7 +35118,7 @@
       <c r="F514" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G514" s="55" t="s">
+      <c r="G514" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H514" s="8" t="s">
@@ -35077,7 +35186,7 @@
       <c r="F515" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G515" s="55" t="s">
+      <c r="G515" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H515" s="8" t="s">
@@ -35131,13 +35240,13 @@
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
-      <c r="E516" s="53" t="s">
+      <c r="E516" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="F516" s="54" t="s">
+      <c r="F516" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G516" s="54" t="s">
+      <c r="G516" s="53" t="s">
         <v>245</v>
       </c>
       <c r="H516" s="8"/>
@@ -35179,7 +35288,7 @@
       <c r="F517" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G517" s="55" t="s">
+      <c r="G517" s="54" t="s">
         <v>238</v>
       </c>
       <c r="H517" s="8" t="s">
@@ -35247,7 +35356,7 @@
       <c r="F518" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G518" s="55" t="s">
+      <c r="G518" s="54" t="s">
         <v>238</v>
       </c>
       <c r="H518" s="8" t="s">
@@ -35268,7 +35377,7 @@
       <c r="M518" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N518" s="55" t="s">
+      <c r="N518" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O518" s="8" t="s">
@@ -35315,7 +35424,7 @@
       <c r="F519" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G519" s="55" t="s">
+      <c r="G519" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H519" s="8" t="s">
@@ -35383,7 +35492,7 @@
       <c r="F520" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G520" s="55" t="s">
+      <c r="G520" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H520" s="8" t="s">
@@ -35451,7 +35560,7 @@
       <c r="F521" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G521" s="55" t="s">
+      <c r="G521" s="54" t="s">
         <v>206</v>
       </c>
       <c r="H521" s="8" t="s">
@@ -35587,7 +35696,7 @@
       <c r="F523" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G523" s="55" t="s">
+      <c r="G523" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H523" s="8" t="s">
@@ -35655,7 +35764,7 @@
       <c r="F524" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G524" s="55" t="s">
+      <c r="G524" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H524" s="8" t="s">
@@ -35723,7 +35832,7 @@
       <c r="F525" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G525" s="55" t="s">
+      <c r="G525" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H525" s="8" t="s">
@@ -35791,7 +35900,7 @@
       <c r="F526" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G526" s="55" t="s">
+      <c r="G526" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H526" s="8" t="s">
@@ -35859,7 +35968,7 @@
       <c r="F527" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G527" s="55" t="s">
+      <c r="G527" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H527" s="8" t="s">
@@ -35927,7 +36036,7 @@
       <c r="F528" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G528" s="55" t="s">
+      <c r="G528" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H528" s="8" t="s">
@@ -35995,7 +36104,7 @@
       <c r="F529" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G529" s="55" t="s">
+      <c r="G529" s="54" t="s">
         <v>73</v>
       </c>
       <c r="H529" s="8" t="s">
@@ -36016,7 +36125,7 @@
       <c r="M529" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N529" s="55" t="s">
+      <c r="N529" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O529" s="8" t="s">
@@ -36063,7 +36172,7 @@
       <c r="F530" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G530" s="55" t="s">
+      <c r="G530" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H530" s="8" t="s">
@@ -36131,7 +36240,7 @@
       <c r="F531" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G531" s="55" t="s">
+      <c r="G531" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H531" s="8" t="s">
@@ -36199,7 +36308,7 @@
       <c r="F532" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G532" s="55" t="s">
+      <c r="G532" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H532" s="8" t="s">
@@ -36267,7 +36376,7 @@
       <c r="F533" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G533" s="55" t="s">
+      <c r="G533" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H533" s="8" t="s">
@@ -36335,7 +36444,7 @@
       <c r="F534" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G534" s="55" t="s">
+      <c r="G534" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H534" s="8" t="s">
@@ -36424,7 +36533,7 @@
       <c r="M535" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N535" s="55" t="s">
+      <c r="N535" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O535" s="8" t="s">
@@ -36471,7 +36580,7 @@
       <c r="F536" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G536" s="55" t="s">
+      <c r="G536" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H536" s="8" t="s">
@@ -36539,7 +36648,7 @@
       <c r="F537" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G537" s="55" t="s">
+      <c r="G537" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H537" s="8" t="s">
@@ -36628,7 +36737,7 @@
       <c r="M538" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N538" s="55" t="s">
+      <c r="N538" s="54" t="s">
         <v>245</v>
       </c>
       <c r="O538" s="8" t="s">
@@ -36675,7 +36784,7 @@
       <c r="F539" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G539" s="55" t="s">
+      <c r="G539" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H539" s="8" t="s">
@@ -36696,7 +36805,7 @@
       <c r="M539" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N539" s="55" t="s">
+      <c r="N539" s="54" t="s">
         <v>245</v>
       </c>
       <c r="O539" s="8" t="s">
@@ -36743,7 +36852,7 @@
       <c r="F540" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G540" s="55" t="s">
+      <c r="G540" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H540" s="8" t="s">
@@ -36811,7 +36920,7 @@
       <c r="F541" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G541" s="55" t="s">
+      <c r="G541" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H541" s="8" t="s">
@@ -36879,7 +36988,7 @@
       <c r="F542" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G542" s="55" t="s">
+      <c r="G542" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H542" s="8" t="s">
@@ -36947,7 +37056,7 @@
       <c r="F543" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G543" s="55" t="s">
+      <c r="G543" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H543" s="8" t="s">
@@ -37015,7 +37124,7 @@
       <c r="F544" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G544" s="55" t="s">
+      <c r="G544" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H544" s="8" t="s">
@@ -37083,7 +37192,7 @@
       <c r="F545" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G545" s="55" t="s">
+      <c r="G545" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H545" s="8" t="s">
@@ -37104,7 +37213,7 @@
       <c r="M545" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N545" s="55" t="s">
+      <c r="N545" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O545" s="8" t="s">
@@ -37219,7 +37328,7 @@
       <c r="F547" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G547" s="55" t="s">
+      <c r="G547" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H547" s="8" t="s">
@@ -37273,13 +37382,13 @@
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
-      <c r="E548" s="53" t="s">
+      <c r="E548" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F548" s="54" t="s">
+      <c r="F548" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G548" s="54" t="s">
+      <c r="G548" s="53" t="s">
         <v>242</v>
       </c>
       <c r="H548" s="8"/>
@@ -37321,7 +37430,7 @@
       <c r="F549" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G549" s="55" t="s">
+      <c r="G549" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H549" s="8" t="s">
@@ -37389,7 +37498,7 @@
       <c r="F550" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G550" s="55" t="s">
+      <c r="G550" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H550" s="8" t="s">
@@ -37457,7 +37566,7 @@
       <c r="F551" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G551" s="55" t="s">
+      <c r="G551" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H551" s="8" t="s">
@@ -37525,7 +37634,7 @@
       <c r="F552" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G552" s="55" t="s">
+      <c r="G552" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H552" s="8" t="s">
@@ -37593,7 +37702,7 @@
       <c r="F553" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G553" s="55" t="s">
+      <c r="G553" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H553" s="8" t="s">
@@ -37661,13 +37770,13 @@
       <c r="F554" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G554" s="55" t="s">
+      <c r="G554" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H554" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I554" s="56"/>
+      <c r="I554" s="55"/>
       <c r="J554" s="1" t="s">
         <v>20</v>
       </c>
@@ -37727,7 +37836,7 @@
       <c r="F555" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G555" s="55" t="s">
+      <c r="G555" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H555" s="8" t="s">
@@ -37748,7 +37857,7 @@
       <c r="M555" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="N555" s="55" t="s">
+      <c r="N555" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O555" s="8" t="s">
@@ -37816,7 +37925,7 @@
       <c r="M556" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N556" s="55" t="s">
+      <c r="N556" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O556" s="8" t="s">
@@ -37863,7 +37972,7 @@
       <c r="F557" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G557" s="55" t="s">
+      <c r="G557" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H557" s="8" t="s">
@@ -37917,13 +38026,13 @@
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
-      <c r="E558" s="53" t="s">
+      <c r="E558" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F558" s="54" t="s">
+      <c r="F558" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="G558" s="54" t="s">
+      <c r="G558" s="53" t="s">
         <v>246</v>
       </c>
       <c r="H558" s="8"/>
@@ -37965,7 +38074,7 @@
       <c r="F559" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G559" s="55" t="s">
+      <c r="G559" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H559" s="8" t="s">
@@ -38033,7 +38142,7 @@
       <c r="F560" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G560" s="55" t="s">
+      <c r="G560" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H560" s="8" t="s">
@@ -38101,7 +38210,7 @@
       <c r="F561" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G561" s="55" t="s">
+      <c r="G561" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H561" s="8" t="s">
@@ -38190,7 +38299,7 @@
       <c r="M562" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N562" s="55" t="s">
+      <c r="N562" s="54" t="s">
         <v>244</v>
       </c>
       <c r="O562" s="8" t="s">
@@ -38237,7 +38346,7 @@
       <c r="F563" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G563" s="55" t="s">
+      <c r="G563" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H563" s="8" t="s">
@@ -38305,7 +38414,7 @@
       <c r="F564" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G564" s="55" t="s">
+      <c r="G564" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H564" s="8"/>
@@ -38371,7 +38480,7 @@
       <c r="F565" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G565" s="55" t="s">
+      <c r="G565" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H565" s="8" t="s">
@@ -38439,7 +38548,7 @@
       <c r="F566" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G566" s="55" t="s">
+      <c r="G566" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H566" s="8" t="s">
@@ -38507,7 +38616,7 @@
       <c r="F567" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G567" s="55" t="s">
+      <c r="G567" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H567" s="8" t="s">
@@ -38575,7 +38684,7 @@
       <c r="F568" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G568" s="55" t="s">
+      <c r="G568" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H568" s="8" t="s">
@@ -38596,7 +38705,7 @@
       <c r="M568" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N568" s="55" t="s">
+      <c r="N568" s="54" t="s">
         <v>243</v>
       </c>
       <c r="O568" s="8" t="s">
@@ -38643,7 +38752,7 @@
       <c r="F569" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G569" s="55" t="s">
+      <c r="G569" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H569" s="8" t="s">
@@ -38711,7 +38820,7 @@
       <c r="F570" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G570" s="55" t="s">
+      <c r="G570" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H570" s="8" t="s">
@@ -38779,7 +38888,7 @@
       <c r="F571" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G571" s="55" t="s">
+      <c r="G571" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H571" s="8" t="s">
@@ -38847,7 +38956,7 @@
       <c r="F572" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G572" s="55" t="s">
+      <c r="G572" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H572" s="8" t="s">
@@ -38915,7 +39024,7 @@
       <c r="F573" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G573" s="55" t="s">
+      <c r="G573" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H573" s="8"/>
@@ -38981,7 +39090,7 @@
       <c r="F574" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G574" s="55" t="s">
+      <c r="G574" s="54" t="s">
         <v>238</v>
       </c>
       <c r="H574" s="8" t="s">
@@ -39070,7 +39179,7 @@
       <c r="M575" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N575" s="55" t="s">
+      <c r="N575" s="54" t="s">
         <v>246</v>
       </c>
       <c r="O575" s="8" t="s">
@@ -39117,7 +39226,7 @@
       <c r="F576" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G576" s="55" t="s">
+      <c r="G576" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H576" s="8" t="s">
@@ -39185,7 +39294,7 @@
       <c r="F577" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G577" s="55" t="s">
+      <c r="G577" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H577" s="8" t="s">
@@ -39253,7 +39362,7 @@
       <c r="F578" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G578" s="55" t="s">
+      <c r="G578" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H578" s="8" t="s">
@@ -39321,7 +39430,7 @@
       <c r="F579" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G579" s="55" t="s">
+      <c r="G579" s="54" t="s">
         <v>238</v>
       </c>
       <c r="H579" s="8" t="s">
@@ -39389,7 +39498,7 @@
       <c r="F580" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G580" s="55" t="s">
+      <c r="G580" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H580" s="8" t="s">
@@ -39478,7 +39587,7 @@
       <c r="M581" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N581" s="55" t="s">
+      <c r="N581" s="54" t="s">
         <v>244</v>
       </c>
       <c r="O581" s="8" t="s">
@@ -39525,7 +39634,7 @@
       <c r="F582" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G582" s="55" t="s">
+      <c r="G582" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H582" s="8" t="s">
@@ -39593,7 +39702,7 @@
       <c r="F583" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G583" s="55" t="s">
+      <c r="G583" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H583" s="8" t="s">
@@ -39661,7 +39770,7 @@
       <c r="F584" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G584" s="55" t="s">
+      <c r="G584" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H584" s="8" t="s">
@@ -39729,7 +39838,7 @@
       <c r="F585" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G585" s="55" t="s">
+      <c r="G585" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H585" s="8" t="s">
@@ -39797,7 +39906,7 @@
       <c r="F586" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G586" s="55" t="s">
+      <c r="G586" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H586" s="8" t="s">
@@ -39865,7 +39974,7 @@
       <c r="F587" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G587" s="55" t="s">
+      <c r="G587" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H587" s="8" t="s">
@@ -39933,7 +40042,7 @@
       <c r="F588" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G588" s="55" t="s">
+      <c r="G588" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H588" s="8" t="s">
@@ -40001,7 +40110,7 @@
       <c r="F589" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G589" s="55" t="s">
+      <c r="G589" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H589" s="8" t="s">
@@ -40055,13 +40164,13 @@
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
-      <c r="E590" s="53" t="s">
+      <c r="E590" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="F590" s="54" t="s">
+      <c r="F590" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G590" s="54" t="s">
+      <c r="G590" s="53" t="s">
         <v>242</v>
       </c>
       <c r="H590" s="8"/>
@@ -40103,7 +40212,7 @@
       <c r="F591" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G591" s="55" t="s">
+      <c r="G591" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H591" s="8" t="s">
@@ -40171,7 +40280,7 @@
       <c r="F592" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G592" s="55" t="s">
+      <c r="G592" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H592" s="8" t="s">
@@ -40192,7 +40301,7 @@
       <c r="M592" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N592" s="55" t="s">
+      <c r="N592" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O592" s="8" t="s">
@@ -40239,7 +40348,7 @@
       <c r="F593" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G593" s="55" t="s">
+      <c r="G593" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H593" s="8" t="s">
@@ -40293,13 +40402,13 @@
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
-      <c r="E594" s="53" t="s">
+      <c r="E594" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F594" s="54" t="s">
+      <c r="F594" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="G594" s="54" t="s">
+      <c r="G594" s="53" t="s">
         <v>244</v>
       </c>
       <c r="H594" s="8"/>
@@ -40341,7 +40450,7 @@
       <c r="F595" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G595" s="55" t="s">
+      <c r="G595" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H595" s="8" t="s">
@@ -40409,7 +40518,7 @@
       <c r="F596" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G596" s="55" t="s">
+      <c r="G596" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H596" s="8" t="s">
@@ -40477,7 +40586,7 @@
       <c r="F597" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G597" s="55" t="s">
+      <c r="G597" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H597" s="8" t="s">
@@ -40545,7 +40654,7 @@
       <c r="F598" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G598" s="55" t="s">
+      <c r="G598" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H598" s="8" t="s">
@@ -40613,7 +40722,7 @@
       <c r="F599" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G599" s="55" t="s">
+      <c r="G599" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H599" s="8" t="s">
@@ -40681,7 +40790,7 @@
       <c r="F600" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G600" s="55" t="s">
+      <c r="G600" s="54" t="s">
         <v>73</v>
       </c>
       <c r="H600" s="8" t="s">
@@ -40702,7 +40811,7 @@
       <c r="M600" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N600" s="52" t="s">
+      <c r="N600" s="51" t="s">
         <v>206</v>
       </c>
       <c r="O600" s="8" t="s">
@@ -40749,7 +40858,7 @@
       <c r="F601" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G601" s="55" t="s">
+      <c r="G601" s="54" t="s">
         <v>206</v>
       </c>
       <c r="H601" s="8" t="s">
@@ -40770,7 +40879,7 @@
       <c r="M601" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N601" s="55" t="s">
+      <c r="N601" s="54" t="s">
         <v>241</v>
       </c>
       <c r="O601" s="8" t="s">
@@ -40885,7 +40994,7 @@
       <c r="F603" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G603" s="55" t="s">
+      <c r="G603" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H603" s="8" t="s">
@@ -40953,7 +41062,7 @@
       <c r="F604" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G604" s="55" t="s">
+      <c r="G604" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H604" s="8" t="s">
@@ -40974,7 +41083,7 @@
       <c r="M604" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N604" s="55" t="s">
+      <c r="N604" s="54" t="s">
         <v>241</v>
       </c>
       <c r="O604" s="8" t="s">
@@ -41021,7 +41130,7 @@
       <c r="F605" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G605" s="55" t="s">
+      <c r="G605" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H605" s="8" t="s">
@@ -41089,7 +41198,7 @@
       <c r="F606" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G606" s="55" t="s">
+      <c r="G606" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H606" s="8" t="s">
@@ -41157,7 +41266,7 @@
       <c r="F607" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G607" s="55" t="s">
+      <c r="G607" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H607" s="8" t="s">
@@ -41225,7 +41334,7 @@
       <c r="F608" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G608" s="55" t="s">
+      <c r="G608" s="54" t="s">
         <v>206</v>
       </c>
       <c r="H608" s="8" t="s">
@@ -41361,7 +41470,7 @@
       <c r="F610" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G610" s="55" t="s">
+      <c r="G610" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H610" s="8" t="s">
@@ -41429,7 +41538,7 @@
       <c r="F611" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G611" s="55" t="s">
+      <c r="G611" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H611" s="8" t="s">
@@ -41518,7 +41627,7 @@
       <c r="M612" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N612" s="55" t="s">
+      <c r="N612" s="54" t="s">
         <v>241</v>
       </c>
       <c r="O612" s="8" t="s">
@@ -41565,7 +41674,7 @@
       <c r="F613" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G613" s="55" t="s">
+      <c r="G613" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H613" s="8" t="s">
@@ -41633,7 +41742,7 @@
       <c r="F614" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G614" s="55" t="s">
+      <c r="G614" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H614" s="8" t="s">
@@ -41701,7 +41810,7 @@
       <c r="F615" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G615" s="55" t="s">
+      <c r="G615" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H615" s="8" t="s">
@@ -41769,7 +41878,7 @@
       <c r="F616" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G616" s="55" t="s">
+      <c r="G616" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H616" s="8" t="s">
@@ -41837,7 +41946,7 @@
       <c r="F617" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G617" s="55" t="s">
+      <c r="G617" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H617" s="8" t="s">
@@ -41905,7 +42014,7 @@
       <c r="F618" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G618" s="55" t="s">
+      <c r="G618" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H618" s="8" t="s">
@@ -41973,7 +42082,7 @@
       <c r="F619" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G619" s="55" t="s">
+      <c r="G619" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H619" s="8" t="s">
@@ -42109,7 +42218,7 @@
       <c r="F621" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G621" s="55" t="s">
+      <c r="G621" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H621" s="8" t="s">
@@ -42177,13 +42286,13 @@
       <c r="F622" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G622" s="55" t="s">
+      <c r="G622" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H622" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I622" s="56"/>
+      <c r="I622" s="55"/>
       <c r="J622" s="1" t="s">
         <v>20</v>
       </c>
@@ -42243,7 +42352,7 @@
       <c r="F623" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G623" s="55" t="s">
+      <c r="G623" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H623" s="8" t="s">
@@ -42311,13 +42420,13 @@
       <c r="F624" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G624" s="55" t="s">
+      <c r="G624" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H624" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I624" s="56"/>
+      <c r="I624" s="55"/>
       <c r="J624" s="1" t="s">
         <v>20</v>
       </c>
@@ -42377,7 +42486,7 @@
       <c r="F625" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G625" s="55" t="s">
+      <c r="G625" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H625" s="8" t="s">
@@ -42445,7 +42554,7 @@
       <c r="F626" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G626" s="55" t="s">
+      <c r="G626" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H626" s="8" t="s">
@@ -42513,7 +42622,7 @@
       <c r="F627" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G627" s="55" t="s">
+      <c r="G627" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H627" s="8" t="s">
@@ -42581,7 +42690,7 @@
       <c r="F628" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G628" s="55" t="s">
+      <c r="G628" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H628" s="8" t="s">
@@ -42806,7 +42915,7 @@
       <c r="M631" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="N631" s="55" t="s">
+      <c r="N631" s="54" t="s">
         <v>206</v>
       </c>
       <c r="O631" s="8" t="s">
@@ -42921,7 +43030,7 @@
       <c r="F633" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G633" s="55" t="s">
+      <c r="G633" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H633" s="8" t="s">
@@ -42989,7 +43098,7 @@
       <c r="F634" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G634" s="55" t="s">
+      <c r="G634" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H634" s="8" t="s">
@@ -43125,7 +43234,7 @@
       <c r="F636" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G636" s="55" t="s">
+      <c r="G636" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H636" s="8" t="s">
@@ -43193,7 +43302,7 @@
       <c r="F637" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G637" s="55" t="s">
+      <c r="G637" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H637" s="8" t="s">
@@ -43282,7 +43391,7 @@
       <c r="M638" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N638" s="55" t="s">
+      <c r="N638" s="54" t="s">
         <v>247</v>
       </c>
       <c r="O638" s="8" t="s">
@@ -43329,7 +43438,7 @@
       <c r="F639" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G639" s="55" t="s">
+      <c r="G639" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H639" s="8" t="s">
@@ -43397,7 +43506,7 @@
       <c r="F640" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G640" s="55" t="s">
+      <c r="G640" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H640" s="8" t="s">
@@ -43465,7 +43574,7 @@
       <c r="F641" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G641" s="55" t="s">
+      <c r="G641" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H641" s="8" t="s">
@@ -43533,7 +43642,7 @@
       <c r="F642" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G642" s="55" t="s">
+      <c r="G642" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H642" s="8" t="s">
@@ -43622,7 +43731,7 @@
       <c r="M643" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N643" s="55" t="s">
+      <c r="N643" s="54" t="s">
         <v>250</v>
       </c>
       <c r="O643" s="8" t="s">
@@ -43669,7 +43778,7 @@
       <c r="F644" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G644" s="55" t="s">
+      <c r="G644" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H644" s="8" t="s">
@@ -43737,7 +43846,7 @@
       <c r="F645" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G645" s="55" t="s">
+      <c r="G645" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H645" s="8" t="s">
@@ -43805,7 +43914,7 @@
       <c r="F646" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G646" s="55" t="s">
+      <c r="G646" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H646" s="8" t="s">
@@ -43873,13 +43982,13 @@
       <c r="F647" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G647" s="55" t="s">
+      <c r="G647" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H647" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I647" s="54" t="s">
+      <c r="I647" s="53" t="s">
         <v>51</v>
       </c>
       <c r="J647" s="1" t="s">
@@ -43941,7 +44050,7 @@
       <c r="F648" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G648" s="55" t="s">
+      <c r="G648" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H648" s="8" t="s">
@@ -44030,7 +44139,7 @@
       <c r="M649" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N649" s="55" t="s">
+      <c r="N649" s="54" t="s">
         <v>244</v>
       </c>
       <c r="O649" s="8" t="s">
@@ -44077,7 +44186,7 @@
       <c r="F650" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G650" s="55" t="s">
+      <c r="G650" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H650" s="8" t="s">
@@ -44145,7 +44254,7 @@
       <c r="F651" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G651" s="55" t="s">
+      <c r="G651" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H651" s="8" t="s">
@@ -44213,7 +44322,7 @@
       <c r="F652" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G652" s="55" t="s">
+      <c r="G652" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H652" s="8" t="s">
@@ -44281,7 +44390,7 @@
       <c r="F653" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G653" s="55" t="s">
+      <c r="G653" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H653" s="8" t="s">
@@ -44335,13 +44444,13 @@
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
-      <c r="E654" s="53" t="s">
+      <c r="E654" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F654" s="54" t="s">
+      <c r="F654" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G654" s="54" t="s">
+      <c r="G654" s="53" t="s">
         <v>242</v>
       </c>
       <c r="H654" s="8"/>
@@ -44383,7 +44492,7 @@
       <c r="F655" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G655" s="55" t="s">
+      <c r="G655" s="54" t="s">
         <v>241</v>
       </c>
       <c r="H655" s="8" t="s">
@@ -44404,7 +44513,7 @@
       <c r="M655" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N655" s="55" t="s">
+      <c r="N655" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O655" s="8" t="s">
@@ -44451,7 +44560,7 @@
       <c r="F656" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G656" s="55" t="s">
+      <c r="G656" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H656" s="8" t="s">
@@ -44519,7 +44628,7 @@
       <c r="F657" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G657" s="55" t="s">
+      <c r="G657" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H657" s="8" t="s">
@@ -44587,7 +44696,7 @@
       <c r="F658" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G658" s="55" t="s">
+      <c r="G658" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H658" s="8" t="s">
@@ -44655,7 +44764,7 @@
       <c r="F659" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G659" s="55" t="s">
+      <c r="G659" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H659" s="8" t="s">
@@ -44723,7 +44832,7 @@
       <c r="F660" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G660" s="55" t="s">
+      <c r="G660" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H660" s="8" t="s">
@@ -44791,7 +44900,7 @@
       <c r="F661" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G661" s="55" t="s">
+      <c r="G661" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H661" s="8" t="s">
@@ -44859,7 +44968,7 @@
       <c r="F662" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G662" s="55" t="s">
+      <c r="G662" s="54" t="s">
         <v>73</v>
       </c>
       <c r="H662" s="8" t="s">
@@ -44927,7 +45036,7 @@
       <c r="F663" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G663" s="55" t="s">
+      <c r="G663" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H663" s="8" t="s">
@@ -44995,7 +45104,7 @@
       <c r="F664" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G664" s="55" t="s">
+      <c r="G664" s="54" t="s">
         <v>202</v>
       </c>
       <c r="H664" s="8" t="s">
@@ -45063,7 +45172,7 @@
       <c r="F665" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G665" s="55" t="s">
+      <c r="G665" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H665" s="8" t="s">
@@ -45131,7 +45240,7 @@
       <c r="F666" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G666" s="55" t="s">
+      <c r="G666" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H666" s="8" t="s">
@@ -45199,7 +45308,7 @@
       <c r="F667" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G667" s="55" t="s">
+      <c r="G667" s="54" t="s">
         <v>242</v>
       </c>
       <c r="H667" s="8" t="s">
@@ -45267,7 +45376,7 @@
       <c r="F668" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G668" s="55" t="s">
+      <c r="G668" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H668" s="8" t="s">
@@ -45335,7 +45444,7 @@
       <c r="F669" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G669" s="55" t="s">
+      <c r="G669" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H669" s="8" t="s">
@@ -45403,7 +45512,7 @@
       <c r="F670" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G670" s="55" t="s">
+      <c r="G670" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H670" s="8" t="s">
@@ -45471,7 +45580,7 @@
       <c r="F671" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G671" s="55" t="s">
+      <c r="G671" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H671" s="8" t="s">
@@ -45539,7 +45648,7 @@
       <c r="F672" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G672" s="55" t="s">
+      <c r="G672" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H672" s="8" t="s">
@@ -45607,7 +45716,7 @@
       <c r="F673" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G673" s="55" t="s">
+      <c r="G673" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H673" s="8" t="s">
@@ -45675,7 +45784,7 @@
       <c r="F674" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G674" s="55" t="s">
+      <c r="G674" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H674" s="8" t="s">
@@ -45743,7 +45852,7 @@
       <c r="F675" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G675" s="55" t="s">
+      <c r="G675" s="54" t="s">
         <v>246</v>
       </c>
       <c r="H675" s="8" t="s">
@@ -45811,7 +45920,7 @@
       <c r="F676" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G676" s="55" t="s">
+      <c r="G676" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H676" s="8" t="s">
@@ -45879,7 +45988,7 @@
       <c r="F677" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G677" s="55" t="s">
+      <c r="G677" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H677" s="8" t="s">
@@ -45947,7 +46056,7 @@
       <c r="F678" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G678" s="55" t="s">
+      <c r="G678" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H678" s="8" t="s">
@@ -46015,7 +46124,7 @@
       <c r="F679" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G679" s="55" t="s">
+      <c r="G679" s="54" t="s">
         <v>250</v>
       </c>
       <c r="H679" s="8" t="s">
@@ -46104,7 +46213,7 @@
       <c r="M680" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N680" s="55" t="s">
+      <c r="N680" s="54" t="s">
         <v>247</v>
       </c>
       <c r="O680" s="8" t="s">
@@ -46151,7 +46260,7 @@
       <c r="F681" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G681" s="55" t="s">
+      <c r="G681" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H681" s="8" t="s">
@@ -46219,7 +46328,7 @@
       <c r="F682" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G682" s="55" t="s">
+      <c r="G682" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H682" s="8" t="s">
@@ -46287,7 +46396,7 @@
       <c r="F683" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G683" s="55" t="s">
+      <c r="G683" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H683" s="8" t="s">
@@ -46355,7 +46464,7 @@
       <c r="F684" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G684" s="55" t="s">
+      <c r="G684" s="54" t="s">
         <v>206</v>
       </c>
       <c r="H684" s="8" t="s">
@@ -46423,7 +46532,7 @@
       <c r="F685" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G685" s="55" t="s">
+      <c r="G685" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H685" s="8" t="s">
@@ -46491,7 +46600,7 @@
       <c r="F686" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G686" s="55" t="s">
+      <c r="G686" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H686" s="8" t="s">
@@ -46559,7 +46668,7 @@
       <c r="F687" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G687" s="55" t="s">
+      <c r="G687" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H687" s="8" t="s">
@@ -46627,7 +46736,7 @@
       <c r="F688" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G688" s="55" t="s">
+      <c r="G688" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H688" s="8" t="s">
@@ -46648,7 +46757,7 @@
       <c r="M688" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N688" s="55" t="s">
+      <c r="N688" s="54" t="s">
         <v>240</v>
       </c>
       <c r="O688" s="8" t="s">
@@ -46695,7 +46804,7 @@
       <c r="F689" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G689" s="55" t="s">
+      <c r="G689" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H689" s="8" t="s">
@@ -46763,7 +46872,7 @@
       <c r="F690" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G690" s="55" t="s">
+      <c r="G690" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H690" s="8" t="s">
@@ -46831,7 +46940,7 @@
       <c r="F691" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G691" s="55" t="s">
+      <c r="G691" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H691" s="8" t="s">
@@ -46899,7 +47008,7 @@
       <c r="F692" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G692" s="55" t="s">
+      <c r="G692" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H692" s="8" t="s">
@@ -46967,7 +47076,7 @@
       <c r="F693" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G693" s="55" t="s">
+      <c r="G693" s="54" t="s">
         <v>73</v>
       </c>
       <c r="H693" s="8" t="s">
@@ -47056,7 +47165,7 @@
       <c r="M694" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N694" s="55" t="s">
+      <c r="N694" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O694" s="8" t="s">
@@ -47103,7 +47212,7 @@
       <c r="F695" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G695" s="55" t="s">
+      <c r="G695" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H695" s="8" t="s">
@@ -47124,7 +47233,7 @@
       <c r="M695" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="N695" s="55" t="s">
+      <c r="N695" s="54" t="s">
         <v>206</v>
       </c>
       <c r="O695" s="8" t="s">
@@ -47239,7 +47348,7 @@
       <c r="F697" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G697" s="55" t="s">
+      <c r="G697" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H697" s="8" t="s">
@@ -47260,7 +47369,7 @@
       <c r="M697" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N697" s="55" t="s">
+      <c r="N697" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O697" s="8" t="s">
@@ -47375,7 +47484,7 @@
       <c r="F699" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G699" s="55" t="s">
+      <c r="G699" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H699" s="8" t="s">
@@ -47443,7 +47552,7 @@
       <c r="F700" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G700" s="55" t="s">
+      <c r="G700" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H700" s="8" t="s">
@@ -47511,7 +47620,7 @@
       <c r="F701" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G701" s="55" t="s">
+      <c r="G701" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H701" s="8" t="s">
@@ -47579,7 +47688,7 @@
       <c r="F702" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G702" s="55" t="s">
+      <c r="G702" s="54" t="s">
         <v>73</v>
       </c>
       <c r="H702" s="8" t="s">
@@ -47668,7 +47777,7 @@
       <c r="M703" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N703" s="55" t="s">
+      <c r="N703" s="54" t="s">
         <v>202</v>
       </c>
       <c r="O703" s="8" t="s">
@@ -47715,7 +47824,7 @@
       <c r="F704" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G704" s="55" t="s">
+      <c r="G704" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H704" s="8" t="s">
@@ -47783,7 +47892,7 @@
       <c r="F705" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G705" s="55" t="s">
+      <c r="G705" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H705" s="8" t="s">
@@ -47851,13 +47960,13 @@
       <c r="F706" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G706" s="55" t="s">
+      <c r="G706" s="54" t="s">
         <v>240</v>
       </c>
       <c r="H706" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I706" s="56"/>
+      <c r="I706" s="55"/>
       <c r="J706" s="1" t="s">
         <v>20</v>
       </c>
@@ -47917,7 +48026,7 @@
       <c r="F707" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G707" s="55" t="s">
+      <c r="G707" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H707" s="8" t="s">
@@ -47985,7 +48094,7 @@
       <c r="F708" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G708" s="55" t="s">
+      <c r="G708" s="54" t="s">
         <v>247</v>
       </c>
       <c r="H708" s="8" t="s">
@@ -48053,7 +48162,7 @@
       <c r="F709" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G709" s="55" t="s">
+      <c r="G709" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H709" s="8" t="s">
@@ -48074,7 +48183,7 @@
       <c r="M709" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N709" s="55" t="s">
+      <c r="N709" s="54" t="s">
         <v>243</v>
       </c>
       <c r="O709" s="8" t="s">
@@ -48121,7 +48230,7 @@
       <c r="F710" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G710" s="55" t="s">
+      <c r="G710" s="54" t="s">
         <v>249</v>
       </c>
       <c r="H710" s="8" t="s">
@@ -48142,7 +48251,7 @@
       <c r="M710" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N710" s="55" t="s">
+      <c r="N710" s="54" t="s">
         <v>251</v>
       </c>
       <c r="O710" s="8" t="s">
@@ -48189,7 +48298,7 @@
       <c r="F711" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G711" s="55" t="s">
+      <c r="G711" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H711" s="8" t="s">
@@ -48257,7 +48366,7 @@
       <c r="F712" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G712" s="55" t="s">
+      <c r="G712" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H712" s="8" t="s">
@@ -48325,7 +48434,7 @@
       <c r="F713" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G713" s="55" t="s">
+      <c r="G713" s="54" t="s">
         <v>251</v>
       </c>
       <c r="H713" s="8" t="s">
@@ -48393,7 +48502,7 @@
       <c r="F714" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G714" s="55" t="s">
+      <c r="G714" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H714" s="8" t="s">
@@ -48461,7 +48570,7 @@
       <c r="F715" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G715" s="55" t="s">
+      <c r="G715" s="54" t="s">
         <v>243</v>
       </c>
       <c r="H715" s="8" t="s">
@@ -48529,7 +48638,7 @@
       <c r="F716" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G716" s="55" t="s">
+      <c r="G716" s="54" t="s">
         <v>245</v>
       </c>
       <c r="H716" s="8" t="s">
@@ -48650,31 +48759,31 @@
       <c r="A718" s="1">
         <v>599</v>
       </c>
-      <c r="B718" s="46" t="s">
+      <c r="B718" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="C718" s="47"/>
-      <c r="D718" s="48"/>
-      <c r="E718" s="47" t="s">
+      <c r="C718" s="46"/>
+      <c r="D718" s="47"/>
+      <c r="E718" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="F718" s="49" t="s">
+      <c r="F718" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="G718" s="49"/>
-      <c r="H718" s="49"/>
-      <c r="I718" s="49"/>
-      <c r="J718" s="47"/>
-      <c r="K718" s="48"/>
-      <c r="L718" s="47"/>
-      <c r="M718" s="50"/>
-      <c r="N718" s="49"/>
-      <c r="O718" s="49"/>
-      <c r="P718" s="49"/>
-      <c r="Q718" s="49"/>
-      <c r="R718" s="50"/>
-      <c r="S718" s="49"/>
-      <c r="T718" s="50"/>
+      <c r="G718" s="48"/>
+      <c r="H718" s="48"/>
+      <c r="I718" s="48"/>
+      <c r="J718" s="46"/>
+      <c r="K718" s="47"/>
+      <c r="L718" s="46"/>
+      <c r="M718" s="49"/>
+      <c r="N718" s="48"/>
+      <c r="O718" s="48"/>
+      <c r="P718" s="48"/>
+      <c r="Q718" s="48"/>
+      <c r="R718" s="49"/>
+      <c r="S718" s="48"/>
+      <c r="T718" s="49"/>
       <c r="U718" s="4"/>
       <c r="V718" s="4"/>
       <c r="W718" s="4"/>
@@ -48686,29 +48795,29 @@
       <c r="A719" s="1">
         <v>599</v>
       </c>
-      <c r="B719" s="46">
+      <c r="B719" s="45">
         <v>46</v>
       </c>
-      <c r="C719" s="51"/>
-      <c r="D719" s="36"/>
-      <c r="E719" s="51"/>
-      <c r="F719" s="38" t="s">
+      <c r="C719" s="50"/>
+      <c r="D719" s="35"/>
+      <c r="E719" s="50"/>
+      <c r="F719" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G719" s="38"/>
-      <c r="H719" s="38"/>
-      <c r="I719" s="38"/>
-      <c r="J719" s="51"/>
-      <c r="K719" s="36"/>
-      <c r="L719" s="51"/>
-      <c r="M719" s="39"/>
-      <c r="N719" s="38"/>
-      <c r="O719" s="38"/>
-      <c r="P719" s="38"/>
-      <c r="Q719" s="38"/>
-      <c r="R719" s="39"/>
-      <c r="S719" s="38"/>
-      <c r="T719" s="39"/>
+      <c r="G719" s="37"/>
+      <c r="H719" s="37"/>
+      <c r="I719" s="37"/>
+      <c r="J719" s="50"/>
+      <c r="K719" s="35"/>
+      <c r="L719" s="50"/>
+      <c r="M719" s="38"/>
+      <c r="N719" s="37"/>
+      <c r="O719" s="37"/>
+      <c r="P719" s="37"/>
+      <c r="Q719" s="37"/>
+      <c r="R719" s="38"/>
+      <c r="S719" s="37"/>
+      <c r="T719" s="38"/>
       <c r="U719" s="4"/>
       <c r="V719" s="4"/>
       <c r="W719" s="4"/>
@@ -48720,31 +48829,31 @@
       <c r="A720" s="1">
         <v>599</v>
       </c>
-      <c r="B720" s="46">
+      <c r="B720" s="45">
         <v>46</v>
       </c>
-      <c r="C720" s="51"/>
-      <c r="D720" s="36"/>
-      <c r="E720" s="51" t="s">
+      <c r="C720" s="50"/>
+      <c r="D720" s="35"/>
+      <c r="E720" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="F720" s="38" t="s">
+      <c r="F720" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="G720" s="38"/>
-      <c r="H720" s="38"/>
-      <c r="I720" s="38"/>
-      <c r="J720" s="51"/>
-      <c r="K720" s="36"/>
-      <c r="L720" s="51"/>
-      <c r="M720" s="39"/>
-      <c r="N720" s="38"/>
-      <c r="O720" s="38"/>
-      <c r="P720" s="38"/>
-      <c r="Q720" s="38"/>
-      <c r="R720" s="39"/>
-      <c r="S720" s="38"/>
-      <c r="T720" s="39"/>
+      <c r="G720" s="37"/>
+      <c r="H720" s="37"/>
+      <c r="I720" s="37"/>
+      <c r="J720" s="50"/>
+      <c r="K720" s="35"/>
+      <c r="L720" s="50"/>
+      <c r="M720" s="38"/>
+      <c r="N720" s="37"/>
+      <c r="O720" s="37"/>
+      <c r="P720" s="37"/>
+      <c r="Q720" s="37"/>
+      <c r="R720" s="38"/>
+      <c r="S720" s="37"/>
+      <c r="T720" s="38"/>
       <c r="U720" s="4"/>
       <c r="V720" s="4"/>
       <c r="W720" s="4"/>
@@ -48756,7 +48865,7 @@
       <c r="A721" s="1">
         <v>599</v>
       </c>
-      <c r="B721" s="46">
+      <c r="B721" s="45">
         <v>46</v>
       </c>
       <c r="C721" s="20"/>
@@ -48790,7 +48899,7 @@
       <c r="A722" s="1">
         <v>599</v>
       </c>
-      <c r="B722" s="46">
+      <c r="B722" s="45">
         <v>46</v>
       </c>
       <c r="C722" s="20"/>
@@ -48801,7 +48910,7 @@
       <c r="F722" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="G722" s="59" t="s">
+      <c r="G722" s="58" t="s">
         <v>245</v>
       </c>
       <c r="H722" s="34"/>
@@ -48832,7 +48941,7 @@
       <c r="A723" s="1">
         <v>599</v>
       </c>
-      <c r="B723" s="46">
+      <c r="B723" s="45">
         <v>46</v>
       </c>
       <c r="C723" s="20"/>
@@ -48843,7 +48952,7 @@
       <c r="F723" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="G723" s="59" t="s">
+      <c r="G723" s="58" t="s">
         <v>245</v>
       </c>
       <c r="H723" s="34"/>
@@ -48874,7 +48983,7 @@
       <c r="A724" s="1">
         <v>599</v>
       </c>
-      <c r="B724" s="46">
+      <c r="B724" s="45">
         <v>46</v>
       </c>
       <c r="C724" s="20"/>
@@ -48885,7 +48994,7 @@
       <c r="F724" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="G724" s="59" t="s">
+      <c r="G724" s="58" t="s">
         <v>202</v>
       </c>
       <c r="H724" s="34"/>
@@ -48912,7 +49021,7 @@
       <c r="A725" s="1">
         <v>599</v>
       </c>
-      <c r="B725" s="46">
+      <c r="B725" s="45">
         <v>46</v>
       </c>
       <c r="C725" s="20"/>
@@ -48923,7 +49032,7 @@
       <c r="F725" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="G725" s="59" t="s">
+      <c r="G725" s="58" t="s">
         <v>202</v>
       </c>
       <c r="H725" s="34"/>
@@ -48950,7 +49059,7 @@
       <c r="A726" s="1">
         <v>599</v>
       </c>
-      <c r="B726" s="46">
+      <c r="B726" s="45">
         <v>46</v>
       </c>
       <c r="C726" s="20"/>
@@ -48961,7 +49070,7 @@
       <c r="F726" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="G726" s="59" t="s">
+      <c r="G726" s="58" t="s">
         <v>249</v>
       </c>
       <c r="H726" s="34"/>
@@ -48992,7 +49101,7 @@
       <c r="A727" s="1">
         <v>599</v>
       </c>
-      <c r="B727" s="46">
+      <c r="B727" s="45">
         <v>46</v>
       </c>
       <c r="C727" s="20"/>
@@ -49003,7 +49112,7 @@
       <c r="F727" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="G727" s="59" t="s">
+      <c r="G727" s="58" t="s">
         <v>244</v>
       </c>
       <c r="H727" s="34"/>
@@ -49030,7 +49139,7 @@
       <c r="A728" s="1">
         <v>599</v>
       </c>
-      <c r="B728" s="46">
+      <c r="B728" s="45">
         <v>46</v>
       </c>
       <c r="C728" s="20"/>
@@ -49041,7 +49150,7 @@
       <c r="F728" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="G728" s="59" t="s">
+      <c r="G728" s="58" t="s">
         <v>244</v>
       </c>
       <c r="H728" s="34"/>
@@ -49070,7 +49179,7 @@
       <c r="A729" s="1">
         <v>599</v>
       </c>
-      <c r="B729" s="46">
+      <c r="B729" s="45">
         <v>46</v>
       </c>
       <c r="C729" s="20"/>
@@ -49081,7 +49190,7 @@
       <c r="F729" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="G729" s="59" t="s">
+      <c r="G729" s="58" t="s">
         <v>251</v>
       </c>
       <c r="H729" s="34"/>
@@ -49110,7 +49219,7 @@
       <c r="A730" s="1">
         <v>599</v>
       </c>
-      <c r="B730" s="46">
+      <c r="B730" s="45">
         <v>46</v>
       </c>
       <c r="C730" s="20"/>
@@ -49121,7 +49230,7 @@
       <c r="F730" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G730" s="59" t="s">
+      <c r="G730" s="58" t="s">
         <v>251</v>
       </c>
       <c r="H730" s="34"/>
@@ -49136,7 +49245,7 @@
       <c r="M730" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="N730" s="59" t="s">
+      <c r="N730" s="58" t="s">
         <v>249</v>
       </c>
       <c r="O730" s="34"/>
@@ -49156,7 +49265,7 @@
       <c r="A731" s="1">
         <v>599</v>
       </c>
-      <c r="B731" s="46">
+      <c r="B731" s="45">
         <v>46</v>
       </c>
       <c r="C731" s="20"/>
@@ -49167,7 +49276,7 @@
       <c r="F731" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="G731" s="59" t="s">
+      <c r="G731" s="58" t="s">
         <v>249</v>
       </c>
       <c r="H731" s="34"/>
@@ -49180,7 +49289,7 @@
       <c r="M731" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="N731" s="59" t="s">
+      <c r="N731" s="58" t="s">
         <v>243</v>
       </c>
       <c r="O731" s="34"/>
@@ -49215,7 +49324,7 @@
       <c r="F732" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G732" s="59" t="s">
+      <c r="G732" s="58" t="s">
         <v>243</v>
       </c>
       <c r="H732" s="34"/>
@@ -49230,7 +49339,7 @@
       <c r="M732" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="N732" s="59" t="s">
+      <c r="N732" s="58" t="s">
         <v>246</v>
       </c>
       <c r="O732" s="34"/>
@@ -49295,7 +49404,7 @@
       <c r="F734" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G734" s="59" t="s">
+      <c r="G734" s="58" t="s">
         <v>246</v>
       </c>
       <c r="H734" s="34"/>
@@ -49308,7 +49417,7 @@
       <c r="M734" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="N734" s="59" t="s">
+      <c r="N734" s="58" t="s">
         <v>241</v>
       </c>
       <c r="O734" s="34"/>
@@ -49339,7 +49448,7 @@
       <c r="F735" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G735" s="59" t="s">
+      <c r="G735" s="58" t="s">
         <v>241</v>
       </c>
       <c r="H735" s="34"/>
@@ -49415,7 +49524,7 @@
       <c r="F737" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G737" s="59" t="s">
+      <c r="G737" s="58" t="s">
         <v>206</v>
       </c>
       <c r="H737" s="34"/>
@@ -49430,7 +49539,7 @@
       <c r="M737" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="N737" s="59" t="s">
+      <c r="N737" s="58" t="s">
         <v>243</v>
       </c>
       <c r="O737" s="34"/>
@@ -49495,7 +49604,7 @@
       <c r="F739" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G739" s="59" t="s">
+      <c r="G739" s="58" t="s">
         <v>243</v>
       </c>
       <c r="H739" s="34"/>
@@ -49535,7 +49644,7 @@
       <c r="F740" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="G740" s="59" t="s">
+      <c r="G740" s="58" t="s">
         <v>243</v>
       </c>
       <c r="H740" s="34"/>
@@ -49550,7 +49659,7 @@
       <c r="M740" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="N740" s="59" t="s">
+      <c r="N740" s="58" t="s">
         <v>249</v>
       </c>
       <c r="O740" s="34"/>
@@ -49581,7 +49690,7 @@
       <c r="F741" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G741" s="59" t="s">
+      <c r="G741" s="58" t="s">
         <v>250</v>
       </c>
       <c r="H741" s="34"/>
@@ -49619,7 +49728,7 @@
       <c r="F742" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="G742" s="59" t="s">
+      <c r="G742" s="58" t="s">
         <v>250</v>
       </c>
       <c r="H742" s="34"/>
@@ -49657,7 +49766,7 @@
       <c r="F743" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="G743" s="59" t="s">
+      <c r="G743" s="58" t="s">
         <v>250</v>
       </c>
       <c r="H743" s="34"/>
@@ -49699,7 +49808,7 @@
       <c r="F744" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G744" s="59" t="s">
+      <c r="G744" s="58" t="s">
         <v>249</v>
       </c>
       <c r="H744" s="34"/>
@@ -49748,7 +49857,7 @@
       <c r="M745" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="N745" s="59" t="s">
+      <c r="N745" s="58" t="s">
         <v>242</v>
       </c>
       <c r="O745" s="34"/>
@@ -49779,7 +49888,7 @@
       <c r="F746" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G746" s="59" t="s">
+      <c r="G746" s="58" t="s">
         <v>242</v>
       </c>
       <c r="H746" s="34"/>
@@ -49817,7 +49926,7 @@
       <c r="F747" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="G747" s="59" t="s">
+      <c r="G747" s="58" t="s">
         <v>249</v>
       </c>
       <c r="H747" s="34"/>
@@ -49855,7 +49964,7 @@
       <c r="F748" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G748" s="59" t="s">
+      <c r="G748" s="58" t="s">
         <v>250</v>
       </c>
       <c r="H748" s="34"/>
@@ -49893,7 +50002,7 @@
       <c r="F749" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="G749" s="59" t="s">
+      <c r="G749" s="58" t="s">
         <v>250</v>
       </c>
       <c r="H749" s="34"/>
@@ -49935,7 +50044,7 @@
       <c r="F750" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="G750" s="59" t="s">
+      <c r="G750" s="58" t="s">
         <v>250</v>
       </c>
       <c r="H750" s="34"/>
@@ -50013,7 +50122,7 @@
       <c r="F752" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="G752" s="59" t="s">
+      <c r="G752" s="58" t="s">
         <v>250</v>
       </c>
       <c r="H752" s="34"/>
@@ -50055,7 +50164,7 @@
       <c r="F753" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G753" s="59" t="s">
+      <c r="G753" s="58" t="s">
         <v>242</v>
       </c>
       <c r="H753" s="34"/>
@@ -50095,7 +50204,7 @@
       <c r="F754" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="G754" s="59" t="s">
+      <c r="G754" s="58" t="s">
         <v>245</v>
       </c>
       <c r="H754" s="34"/>
@@ -50135,7 +50244,7 @@
       <c r="F755" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="G755" s="59" t="s">
+      <c r="G755" s="58" t="s">
         <v>245</v>
       </c>
       <c r="H755" s="34"/>
@@ -50177,7 +50286,7 @@
       <c r="F756" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="G756" s="59" t="s">
+      <c r="G756" s="58" t="s">
         <v>245</v>
       </c>
       <c r="H756" s="34"/>
@@ -50219,7 +50328,7 @@
       <c r="F757" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="G757" s="59" t="s">
+      <c r="G757" s="58" t="s">
         <v>238</v>
       </c>
       <c r="H757" s="34"/>
@@ -50263,7 +50372,7 @@
       <c r="F758" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G758" s="59" t="s">
+      <c r="G758" s="58" t="s">
         <v>206</v>
       </c>
       <c r="H758" s="34"/>
@@ -50337,7 +50446,7 @@
       <c r="F760" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="G760" s="59" t="s">
+      <c r="G760" s="58" t="s">
         <v>242</v>
       </c>
       <c r="H760" s="34"/>
@@ -50383,7 +50492,7 @@
       <c r="F761" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G761" s="59" t="s">
+      <c r="G761" s="58" t="s">
         <v>242</v>
       </c>
       <c r="H761" s="34"/>
@@ -50398,7 +50507,7 @@
       <c r="M761" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="N761" s="59" t="s">
+      <c r="N761" s="58" t="s">
         <v>202</v>
       </c>
       <c r="O761" s="34"/>
@@ -50497,7 +50606,7 @@
       <c r="F764" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="G764" s="59" t="s">
+      <c r="G764" s="58" t="s">
         <v>202</v>
       </c>
       <c r="H764" s="34"/>
@@ -50541,7 +50650,7 @@
       <c r="F765" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G765" s="59" t="s">
+      <c r="G765" s="58" t="s">
         <v>245</v>
       </c>
       <c r="H765" s="34"/>
@@ -50581,7 +50690,7 @@
       <c r="F766" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="G766" s="59" t="s">
+      <c r="G766" s="58" t="s">
         <v>245</v>
       </c>
       <c r="H766" s="34"/>
@@ -50623,7 +50732,7 @@
       <c r="F767" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G767" s="59" t="s">
+      <c r="G767" s="58" t="s">
         <v>245</v>
       </c>
       <c r="H767" s="34"/>
@@ -50636,7 +50745,7 @@
       <c r="M767" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="N767" s="59" t="s">
+      <c r="N767" s="58" t="s">
         <v>244</v>
       </c>
       <c r="O767" s="34"/>
@@ -50669,7 +50778,7 @@
       <c r="F768" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="G768" s="59" t="s">
+      <c r="G768" s="58" t="s">
         <v>245</v>
       </c>
       <c r="H768" s="34"/>
@@ -50709,7 +50818,7 @@
       <c r="F769" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="G769" s="59" t="s">
+      <c r="G769" s="58" t="s">
         <v>240</v>
       </c>
       <c r="H769" s="34"/>
@@ -50747,7 +50856,7 @@
       <c r="F770" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="G770" s="59" t="s">
+      <c r="G770" s="58" t="s">
         <v>240</v>
       </c>
       <c r="H770" s="34"/>
@@ -50785,7 +50894,7 @@
       <c r="F771" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="G771" s="59" t="s">
+      <c r="G771" s="58" t="s">
         <v>240</v>
       </c>
       <c r="H771" s="34"/>
@@ -50827,7 +50936,7 @@
       <c r="F772" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G772" s="59" t="s">
+      <c r="G772" s="58" t="s">
         <v>241</v>
       </c>
       <c r="H772" s="34"/>
@@ -50901,7 +51010,7 @@
       <c r="F774" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="G774" s="59" t="s">
+      <c r="G774" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H774" s="34"/>
@@ -50939,7 +51048,7 @@
       <c r="F775" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G775" s="59" t="s">
+      <c r="G775" s="58" t="s">
         <v>202</v>
       </c>
       <c r="H775" s="34"/>
@@ -51013,7 +51122,7 @@
       <c r="F777" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="G777" s="59" t="s">
+      <c r="G777" s="58" t="s">
         <v>243</v>
       </c>
       <c r="H777" s="34"/>
@@ -51091,7 +51200,7 @@
       <c r="F779" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="G779" s="59" t="s">
+      <c r="G779" s="58" t="s">
         <v>249</v>
       </c>
       <c r="H779" s="34"/>
@@ -51129,7 +51238,7 @@
       <c r="F780" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G780" s="59" t="s">
+      <c r="G780" s="58" t="s">
         <v>249</v>
       </c>
       <c r="H780" s="34"/>
@@ -51169,7 +51278,7 @@
       <c r="F781" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="G781" s="59" t="s">
+      <c r="G781" s="58" t="s">
         <v>242</v>
       </c>
       <c r="H781" s="34"/>
@@ -51211,7 +51320,7 @@
       <c r="F782" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="G782" s="59" t="s">
+      <c r="G782" s="58" t="s">
         <v>242</v>
       </c>
       <c r="H782" s="34"/>
@@ -51249,7 +51358,7 @@
       <c r="F783" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G783" s="59" t="s">
+      <c r="G783" s="58" t="s">
         <v>242</v>
       </c>
       <c r="H783" s="34"/>
@@ -51291,7 +51400,7 @@
       <c r="F784" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G784" s="59" t="s">
+      <c r="G784" s="58" t="s">
         <v>249</v>
       </c>
       <c r="H784" s="34"/>
@@ -51333,7 +51442,7 @@
       <c r="F785" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G785" s="59" t="s">
+      <c r="G785" s="58" t="s">
         <v>250</v>
       </c>
       <c r="H785" s="34"/>
@@ -51371,7 +51480,7 @@
       <c r="F786" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="G786" s="59" t="s">
+      <c r="G786" s="58" t="s">
         <v>240</v>
       </c>
       <c r="H786" s="34"/>
@@ -51413,7 +51522,7 @@
       <c r="F787" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="G787" s="59" t="s">
+      <c r="G787" s="58" t="s">
         <v>240</v>
       </c>
       <c r="H787" s="34"/>
@@ -51455,7 +51564,7 @@
       <c r="F788" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="G788" s="59" t="s">
+      <c r="G788" s="58" t="s">
         <v>250</v>
       </c>
       <c r="H788" s="34"/>
@@ -51497,7 +51606,7 @@
       <c r="F789" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="G789" s="59" t="s">
+      <c r="G789" s="58" t="s">
         <v>249</v>
       </c>
       <c r="H789" s="34"/>
@@ -51539,7 +51648,7 @@
       <c r="F790" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G790" s="59" t="s">
+      <c r="G790" s="58" t="s">
         <v>242</v>
       </c>
       <c r="H790" s="34"/>
@@ -51577,7 +51686,7 @@
       <c r="F791" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="G791" s="59" t="s">
+      <c r="G791" s="58" t="s">
         <v>242</v>
       </c>
       <c r="H791" s="34"/>
@@ -51619,7 +51728,7 @@
       <c r="F792" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="G792" s="59" t="s">
+      <c r="G792" s="58" t="s">
         <v>251</v>
       </c>
       <c r="H792" s="34"/>
@@ -51657,7 +51766,7 @@
       <c r="F793" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G793" s="59" t="s">
+      <c r="G793" s="58" t="s">
         <v>251</v>
       </c>
       <c r="H793" s="34"/>
@@ -51695,7 +51804,7 @@
       <c r="F794" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G794" s="59" t="s">
+      <c r="G794" s="58" t="s">
         <v>241</v>
       </c>
       <c r="H794" s="34"/>
@@ -51708,7 +51817,7 @@
       <c r="M794" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="N794" s="59" t="s">
+      <c r="N794" s="58" t="s">
         <v>242</v>
       </c>
       <c r="O794" s="34"/>
@@ -51739,7 +51848,7 @@
       <c r="F795" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="G795" s="59" t="s">
+      <c r="G795" s="58" t="s">
         <v>242</v>
       </c>
       <c r="H795" s="34"/>
@@ -51781,7 +51890,7 @@
       <c r="F796" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G796" s="59" t="s">
+      <c r="G796" s="58" t="s">
         <v>242</v>
       </c>
       <c r="H796" s="34"/>
@@ -51819,7 +51928,7 @@
       <c r="F797" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="G797" s="59" t="s">
+      <c r="G797" s="58" t="s">
         <v>242</v>
       </c>
       <c r="H797" s="34"/>
@@ -51861,7 +51970,7 @@
       <c r="F798" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="G798" s="59" t="s">
+      <c r="G798" s="58" t="s">
         <v>241</v>
       </c>
       <c r="H798" s="34"/>
@@ -51874,7 +51983,7 @@
       <c r="M798" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="N798" s="59" t="s">
+      <c r="N798" s="58" t="s">
         <v>242</v>
       </c>
       <c r="O798" s="34"/>
@@ -51905,7 +52014,7 @@
       <c r="F799" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="G799" s="59" t="s">
+      <c r="G799" s="58" t="s">
         <v>249</v>
       </c>
       <c r="H799" s="34"/>
@@ -51943,7 +52052,7 @@
       <c r="F800" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G800" s="59" t="s">
+      <c r="G800" s="58" t="s">
         <v>249</v>
       </c>
       <c r="H800" s="34"/>
@@ -51985,7 +52094,7 @@
       <c r="F801" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G801" s="59" t="s">
+      <c r="G801" s="58" t="s">
         <v>241</v>
       </c>
       <c r="H801" s="34"/>
@@ -52023,7 +52132,7 @@
       <c r="F802" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="G802" s="59" t="s">
+      <c r="G802" s="58" t="s">
         <v>241</v>
       </c>
       <c r="H802" s="34"/>
@@ -52065,7 +52174,7 @@
       <c r="F803" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G803" s="59" t="s">
+      <c r="G803" s="58" t="s">
         <v>251</v>
       </c>
       <c r="H803" s="34"/>
@@ -52109,7 +52218,7 @@
       <c r="F804" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="G804" s="59" t="s">
+      <c r="G804" s="58" t="s">
         <v>241</v>
       </c>
       <c r="H804" s="34"/>
@@ -52147,7 +52256,7 @@
       <c r="F805" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="G805" s="59" t="s">
+      <c r="G805" s="58" t="s">
         <v>242</v>
       </c>
       <c r="H805" s="34"/>
@@ -52185,7 +52294,7 @@
       <c r="F806" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G806" s="59" t="s">
+      <c r="G806" s="58" t="s">
         <v>242</v>
       </c>
       <c r="H806" s="34"/>
@@ -52198,7 +52307,7 @@
       <c r="M806" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="N806" s="59" t="s">
+      <c r="N806" s="58" t="s">
         <v>250</v>
       </c>
       <c r="O806" s="34"/>
@@ -52229,7 +52338,7 @@
       <c r="F807" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G807" s="59" t="s">
+      <c r="G807" s="58" t="s">
         <v>250</v>
       </c>
       <c r="H807" s="34"/>
@@ -52271,7 +52380,7 @@
       <c r="F808" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G808" s="59" t="s">
+      <c r="G808" s="58" t="s">
         <v>238</v>
       </c>
       <c r="H808" s="34"/>
@@ -56856,8 +56965,8 @@
       <c r="I921" s="34"/>
       <c r="J921" s="20"/>
       <c r="K921" s="20"/>
-      <c r="L921" s="60"/>
-      <c r="M921" s="61"/>
+      <c r="L921" s="59"/>
+      <c r="M921" s="60"/>
       <c r="N921" s="34"/>
       <c r="O921" s="34"/>
       <c r="P921" s="34"/>
@@ -57517,13 +57626,13 @@
       <c r="B938" s="20"/>
       <c r="C938" s="20"/>
       <c r="D938" s="20"/>
-      <c r="E938" s="62" t="s">
+      <c r="E938" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="F938" s="63" t="s">
+      <c r="F938" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="G938" s="63" t="s">
+      <c r="G938" s="62" t="s">
         <v>246</v>
       </c>
       <c r="H938" s="34"/>
@@ -59755,7 +59864,7 @@
         <v>245</v>
       </c>
       <c r="H994" s="34"/>
-      <c r="I994" s="63" t="s">
+      <c r="I994" s="62" t="s">
         <v>43</v>
       </c>
       <c r="J994" s="20"/>
@@ -64721,13 +64830,13 @@
       <c r="B1117" s="20"/>
       <c r="C1117" s="20"/>
       <c r="D1117" s="20"/>
-      <c r="E1117" s="62" t="s">
+      <c r="E1117" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="F1117" s="63" t="s">
+      <c r="F1117" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="G1117" s="63" t="s">
+      <c r="G1117" s="62" t="s">
         <v>241</v>
       </c>
       <c r="H1117" s="34"/>
@@ -66197,7 +66306,7 @@
         <v>244</v>
       </c>
       <c r="H1153" s="34"/>
-      <c r="I1153" s="61"/>
+      <c r="I1153" s="60"/>
       <c r="J1153" s="20"/>
       <c r="K1153" s="20"/>
       <c r="L1153" s="20" t="s">
@@ -69980,7 +70089,7 @@
       <c r="G1247" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="H1247" s="63" t="s">
+      <c r="H1247" s="62" t="s">
         <v>43</v>
       </c>
       <c r="I1247" s="34"/>
@@ -70475,7 +70584,7 @@
         <v>247</v>
       </c>
       <c r="H1259" s="34"/>
-      <c r="I1259" s="61"/>
+      <c r="I1259" s="60"/>
       <c r="J1259" s="20"/>
       <c r="K1259" s="20"/>
       <c r="L1259" s="20" t="s">
@@ -70517,7 +70626,7 @@
         <v>247</v>
       </c>
       <c r="H1260" s="34"/>
-      <c r="I1260" s="61"/>
+      <c r="I1260" s="60"/>
       <c r="J1260" s="20"/>
       <c r="K1260" s="20"/>
       <c r="L1260" s="20"/>
